--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2908907.425555708</v>
+        <v>-2909681.660476846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1375951.077198943</v>
+        <v>1375951.077198944</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.965168186</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.31959957209772</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1181,13 +1181,13 @@
         <v>39.88136420416884</v>
       </c>
       <c r="S8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.31959957209772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.12750559103189</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>35.12750559103189</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,25 +1297,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>20.35309587319853</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="G10" t="n">
-        <v>35.1275055910319</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="H10" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="I10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5051698924241</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.7738555799716</v>
       </c>
       <c r="D11" t="n">
-        <v>234.3934926556274</v>
+        <v>234.3934926556273</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9067956563165</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>285.0826233815699</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1288013013914</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.6612460886614</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.225345557296</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3219814235483</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3188769015835</v>
       </c>
       <c r="X11" t="n">
-        <v>205.4260325974213</v>
+        <v>224.4170374421363</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.4758316522648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.16088551137383</v>
+        <v>43.16088551137378</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>48.81434382842994</v>
       </c>
       <c r="D12" t="n">
-        <v>23.90118347567457</v>
+        <v>23.90118347567451</v>
       </c>
       <c r="E12" t="n">
-        <v>33.82219360820284</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.2949919845783</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>13.5365684847816</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I12" t="n">
         <v>77.02151396054032</v>
@@ -1500,22 +1500,22 @@
         <v>163.8461495803725</v>
       </c>
       <c r="T12" t="n">
-        <v>145.5628624975597</v>
+        <v>159.9713869431698</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6390585394848</v>
+        <v>102.4278184405137</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.6974909406841</v>
       </c>
       <c r="W12" t="n">
         <v>127.778106651029</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.25038950950722</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.45991131961503</v>
+        <v>81.45991131961497</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.75153637516686</v>
+        <v>57.87245139171276</v>
       </c>
       <c r="C13" t="n">
-        <v>45.12531283223134</v>
+        <v>45.12531283223129</v>
       </c>
       <c r="D13" t="n">
-        <v>26.79432641554837</v>
+        <v>26.79432641554831</v>
       </c>
       <c r="E13" t="n">
-        <v>24.76338407422818</v>
+        <v>24.76338407422813</v>
       </c>
       <c r="F13" t="n">
-        <v>23.94778131083351</v>
+        <v>18.82686629428898</v>
       </c>
       <c r="G13" t="n">
-        <v>45.44746136318782</v>
+        <v>45.44746136318776</v>
       </c>
       <c r="H13" t="n">
-        <v>37.37003242217885</v>
+        <v>37.3700324221788</v>
       </c>
       <c r="I13" t="n">
-        <v>24.60389084410421</v>
+        <v>24.60389084410416</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.79836742102039</v>
+        <v>40.79836742102034</v>
       </c>
       <c r="S13" t="n">
-        <v>96.12242798919047</v>
+        <v>96.12242798919043</v>
       </c>
       <c r="T13" t="n">
-        <v>105.134706711299</v>
+        <v>105.1347067112989</v>
       </c>
       <c r="U13" t="n">
-        <v>163.8284364302051</v>
+        <v>163.828436430205</v>
       </c>
       <c r="V13" t="n">
-        <v>130.7251109679682</v>
+        <v>130.7251109679681</v>
       </c>
       <c r="W13" t="n">
         <v>163.8813367884445</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9291198333383</v>
+        <v>103.9291198333382</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.53743376879723</v>
+        <v>96.53743376879717</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7738555799716</v>
+        <v>99.87330308382309</v>
       </c>
       <c r="D14" t="n">
-        <v>234.3934926556273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.9067956563164</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0826233815698</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>292.1288013013915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.6612460886615</v>
       </c>
       <c r="I14" t="n">
         <v>63.16917062543706</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92443839553178</v>
       </c>
       <c r="T14" t="n">
-        <v>44.49811191514146</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2253455572959</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3188769015835</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>248.6503590321983</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4758316522648</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.04719910293164</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>48.81434382842994</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>23.90118347567451</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>33.82219360820278</v>
+        <v>59.13409995612761</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.29499198457825</v>
       </c>
       <c r="G15" t="n">
         <v>13.53656848478155</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>77.02151396054032</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.59592120417298</v>
       </c>
       <c r="S15" t="n">
         <v>41.63490948140146</v>
@@ -1740,13 +1740,13 @@
         <v>75.06123001120439</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6390585394848</v>
+        <v>102.4278184405137</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>127.778106651029</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1774,7 +1774,7 @@
         <v>24.76338407422813</v>
       </c>
       <c r="F16" t="n">
-        <v>18.82686629428852</v>
+        <v>18.82686629428895</v>
       </c>
       <c r="G16" t="n">
         <v>45.44746136318776</v>
@@ -1850,7 +1850,7 @@
         <v>132.2744020114663</v>
       </c>
       <c r="E17" t="n">
-        <v>158.7877050121553</v>
+        <v>158.7877050121554</v>
       </c>
       <c r="F17" t="n">
         <v>182.9635327374087</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.10625491313482</v>
+        <v>27.10625491313485</v>
       </c>
       <c r="V17" t="n">
-        <v>104.2028907793878</v>
+        <v>104.2028907793872</v>
       </c>
       <c r="W17" t="n">
         <v>126.1997862574225</v>
@@ -1926,13 +1926,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>43.83524092432413</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>77.02151396054032</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.8461495803725</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>224.6390585394848</v>
       </c>
       <c r="V18" t="n">
-        <v>7.578400296523</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>123.8600126604662</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9200922491162</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.015616067137824</v>
+        <v>3.015616067137853</v>
       </c>
       <c r="U19" t="n">
-        <v>61.70934578604395</v>
+        <v>61.70934578604398</v>
       </c>
       <c r="V19" t="n">
-        <v>28.60602032380703</v>
+        <v>28.60602032380706</v>
       </c>
       <c r="W19" t="n">
-        <v>61.76224614428341</v>
+        <v>61.76224614428344</v>
       </c>
       <c r="X19" t="n">
-        <v>1.810029189177129</v>
+        <v>1.810029189177158</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>196.9200922491159</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>182.9635327374087</v>
       </c>
       <c r="G20" t="n">
-        <v>190.0097106572304</v>
+        <v>190.0097106572311</v>
       </c>
       <c r="H20" t="n">
         <v>108.5421554445004</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.10625491313578</v>
+        <v>27.10625491313482</v>
       </c>
       <c r="V20" t="n">
         <v>104.2028907793872</v>
@@ -2166,13 +2166,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>43.83524092432435</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>115.3603154156924</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.59592120417298</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6390585394848</v>
+        <v>0.3087277963526656</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>7.578400296523</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.9200922491162</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>3.015616067137824</v>
@@ -2299,7 +2299,7 @@
         <v>28.60602032380703</v>
       </c>
       <c r="W22" t="n">
-        <v>61.76224614428341</v>
+        <v>258.6823383933996</v>
       </c>
       <c r="X22" t="n">
         <v>1.810029189177129</v>
@@ -2409,7 +2409,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0.3087277963526656</v>
       </c>
       <c r="V24" t="n">
-        <v>200.5346369163886</v>
+        <v>64.78682833263579</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>146.8151309430752</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>50.10496130604088</v>
       </c>
       <c r="T25" t="n">
         <v>3.015616067137824</v>
@@ -2542,7 +2542,7 @@
         <v>1.810029189177129</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.9200922491162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>224.2730084788587</v>
       </c>
       <c r="D26" t="n">
-        <v>213.8926455545145</v>
+        <v>213.8926455545144</v>
       </c>
       <c r="E26" t="n">
         <v>240.4059485552035</v>
@@ -2567,13 +2567,13 @@
         <v>264.5817762804569</v>
       </c>
       <c r="G26" t="n">
-        <v>271.6279542002786</v>
+        <v>271.6279542002785</v>
       </c>
       <c r="H26" t="n">
-        <v>190.1603989875486</v>
+        <v>190.1603989875485</v>
       </c>
       <c r="I26" t="n">
-        <v>42.66832352432419</v>
+        <v>42.66832352432414</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.42359129441891</v>
+        <v>51.42359129441886</v>
       </c>
       <c r="T26" t="n">
-        <v>77.99982567115347</v>
+        <v>77.99982567115342</v>
       </c>
       <c r="U26" t="n">
         <v>108.724498456183</v>
@@ -2615,13 +2615,13 @@
         <v>185.8211343224354</v>
       </c>
       <c r="W26" t="n">
-        <v>207.8180298004707</v>
+        <v>207.8180298004706</v>
       </c>
       <c r="X26" t="n">
-        <v>228.1495119310855</v>
+        <v>228.1495119310854</v>
       </c>
       <c r="Y26" t="n">
-        <v>243.9749845511519</v>
+        <v>243.9749845511518</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>22.66003841026085</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2646,7 +2646,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S27" t="n">
-        <v>22.50802192042435</v>
+        <v>29.47230053675574</v>
       </c>
       <c r="T27" t="n">
-        <v>54.56038291009153</v>
+        <v>54.56038291009147</v>
       </c>
       <c r="U27" t="n">
         <v>224.6390585394848</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.37160429059989</v>
+        <v>37.37160429059983</v>
       </c>
       <c r="C28" t="n">
-        <v>24.62446573111842</v>
+        <v>24.62446573111836</v>
       </c>
       <c r="D28" t="n">
-        <v>6.293479314435444</v>
+        <v>6.293479314435388</v>
       </c>
       <c r="E28" t="n">
-        <v>4.26253697311526</v>
+        <v>4.262536973115203</v>
       </c>
       <c r="F28" t="n">
-        <v>3.446934209720581</v>
+        <v>3.446934209720524</v>
       </c>
       <c r="G28" t="n">
-        <v>24.9466142620749</v>
+        <v>24.94661426207484</v>
       </c>
       <c r="H28" t="n">
-        <v>16.86918532106593</v>
+        <v>16.86918532106587</v>
       </c>
       <c r="I28" t="n">
-        <v>4.103043742991286</v>
+        <v>4.103043742991231</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.29752031990746</v>
+        <v>20.29752031990741</v>
       </c>
       <c r="S28" t="n">
-        <v>75.62158088807756</v>
+        <v>75.6215808880775</v>
       </c>
       <c r="T28" t="n">
-        <v>84.63385961018604</v>
+        <v>84.63385961018598</v>
       </c>
       <c r="U28" t="n">
         <v>143.3275893290921</v>
@@ -2776,10 +2776,10 @@
         <v>143.3804896873316</v>
       </c>
       <c r="X28" t="n">
-        <v>83.42827273222534</v>
+        <v>83.42827273222528</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.0365866676843</v>
+        <v>76.03658666768425</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.42359129441885</v>
+        <v>51.42359129441886</v>
       </c>
       <c r="T29" t="n">
         <v>77.99982567115342</v>
@@ -2877,19 +2877,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>13.32134650708986</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>36.85773833049141</v>
+        <v>78.96988074430864</v>
       </c>
       <c r="H30" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>77.02151396054032</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>16.86918532106587</v>
       </c>
       <c r="I31" t="n">
-        <v>4.103043742991229</v>
+        <v>4.103043742991231</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>213.9549019319561</v>
       </c>
       <c r="D32" t="n">
-        <v>203.5745390076119</v>
+        <v>203.5745390076118</v>
       </c>
       <c r="E32" t="n">
-        <v>230.087842008301</v>
+        <v>230.0878420083009</v>
       </c>
       <c r="F32" t="n">
         <v>254.2636697335543</v>
@@ -3044,10 +3044,10 @@
         <v>261.309847653376</v>
       </c>
       <c r="H32" t="n">
-        <v>179.842292440646</v>
+        <v>179.8422924406459</v>
       </c>
       <c r="I32" t="n">
-        <v>32.35021697742161</v>
+        <v>32.35021697742155</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.10548474751633</v>
+        <v>41.10548474751627</v>
       </c>
       <c r="T32" t="n">
-        <v>67.68171912425089</v>
+        <v>67.68171912425083</v>
       </c>
       <c r="U32" t="n">
-        <v>98.40639190928044</v>
+        <v>98.40639190928039</v>
       </c>
       <c r="V32" t="n">
         <v>175.5030277755328</v>
       </c>
       <c r="W32" t="n">
-        <v>197.4999232535681</v>
+        <v>197.499923253568</v>
       </c>
       <c r="X32" t="n">
-        <v>217.8314053841829</v>
+        <v>217.8314053841828</v>
       </c>
       <c r="Y32" t="n">
         <v>233.6568780042493</v>
@@ -3114,7 +3114,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>3.003239960187273</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>10.81595583338601</v>
+        <v>110.4220496714996</v>
       </c>
       <c r="T33" t="n">
         <v>197.2724701101754</v>
       </c>
       <c r="U33" t="n">
-        <v>171.2149586306123</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.05349774369731</v>
+        <v>27.05349774369725</v>
       </c>
       <c r="C34" t="n">
-        <v>14.30635918421584</v>
+        <v>14.30635918421578</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.62850771517231</v>
+        <v>14.62850771517225</v>
       </c>
       <c r="H34" t="n">
-        <v>6.551078774163344</v>
+        <v>6.551078774163287</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.979413773004879</v>
+        <v>9.979413773004824</v>
       </c>
       <c r="S34" t="n">
-        <v>65.30347434117498</v>
+        <v>65.30347434117492</v>
       </c>
       <c r="T34" t="n">
-        <v>74.31575306328345</v>
+        <v>74.3157530632834</v>
       </c>
       <c r="U34" t="n">
-        <v>133.0094827821896</v>
+        <v>133.0094827821895</v>
       </c>
       <c r="V34" t="n">
-        <v>99.90615731995265</v>
+        <v>99.9061573199526</v>
       </c>
       <c r="W34" t="n">
         <v>133.062383140429</v>
       </c>
       <c r="X34" t="n">
-        <v>73.11016618532275</v>
+        <v>73.1101661853227</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.71848012078172</v>
+        <v>65.71848012078166</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>191.113352178378</v>
+        <v>191.1133521783781</v>
       </c>
       <c r="C35" t="n">
-        <v>174.3820378659256</v>
+        <v>174.3820378659257</v>
       </c>
       <c r="D35" t="n">
         <v>164.0016749415814</v>
       </c>
       <c r="E35" t="n">
-        <v>190.5149779422704</v>
+        <v>190.5149779422705</v>
       </c>
       <c r="F35" t="n">
-        <v>214.6908056675238</v>
+        <v>214.6908056675239</v>
       </c>
       <c r="G35" t="n">
         <v>221.7369835873455</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.532620681485804</v>
+        <v>1.532620681485866</v>
       </c>
       <c r="T35" t="n">
-        <v>28.10885505822037</v>
+        <v>28.10885505822043</v>
       </c>
       <c r="U35" t="n">
-        <v>58.83352784324993</v>
+        <v>58.83352784324998</v>
       </c>
       <c r="V35" t="n">
-        <v>135.9301637095023</v>
+        <v>135.9301637095024</v>
       </c>
       <c r="W35" t="n">
         <v>157.9270591875376</v>
@@ -3357,7 +3357,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.59592120417298</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>14.24710515377792</v>
       </c>
       <c r="T36" t="n">
-        <v>77.06840483051523</v>
+        <v>197.2724701101754</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6390585394848</v>
+        <v>32.03600072646783</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.73061027514445</v>
+        <v>25.73061027514451</v>
       </c>
       <c r="T37" t="n">
-        <v>34.74288899725293</v>
+        <v>34.74288899725299</v>
       </c>
       <c r="U37" t="n">
-        <v>93.43661871615906</v>
+        <v>93.43661871615912</v>
       </c>
       <c r="V37" t="n">
-        <v>60.33329325392214</v>
+        <v>60.33329325392219</v>
       </c>
       <c r="W37" t="n">
-        <v>93.48951907439852</v>
+        <v>93.48951907439857</v>
       </c>
       <c r="X37" t="n">
-        <v>33.53730211929224</v>
+        <v>33.53730211929229</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.1456160547512</v>
+        <v>26.14561605475126</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.532620681485804</v>
+        <v>1.53262068148581</v>
       </c>
       <c r="T38" t="n">
         <v>28.10885505822037</v>
@@ -3585,7 +3585,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3594,13 +3594,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>54.66526652763013</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.02151396054032</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S39" t="n">
-        <v>163.8461495803725</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>4.669412297158422</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6390585394848</v>
+        <v>32.03600072646777</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>176.3387431883758</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.532620681485804</v>
+        <v>1.53262068148581</v>
       </c>
       <c r="T41" t="n">
         <v>28.10885505822037</v>
@@ -3825,16 +3825,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>62.47782320759028</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7478085837526</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>149.9949137375307</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>4.669412297158422</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>191.1133521783781</v>
+        <v>191.113352178378</v>
       </c>
       <c r="C44" t="n">
-        <v>174.3820378659257</v>
+        <v>174.3820378659256</v>
       </c>
       <c r="D44" t="n">
         <v>164.0016749415814</v>
       </c>
       <c r="E44" t="n">
-        <v>190.5149779422705</v>
+        <v>190.5149779422704</v>
       </c>
       <c r="F44" t="n">
-        <v>214.6908056675239</v>
+        <v>214.6908056675238</v>
       </c>
       <c r="G44" t="n">
         <v>221.7369835873455</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.532620681485866</v>
+        <v>1.53262068148581</v>
       </c>
       <c r="T44" t="n">
-        <v>28.10885505822043</v>
+        <v>28.10885505822037</v>
       </c>
       <c r="U44" t="n">
-        <v>58.83352784324998</v>
+        <v>58.83352784324993</v>
       </c>
       <c r="V44" t="n">
-        <v>135.9301637095024</v>
+        <v>135.9301637095023</v>
       </c>
       <c r="W44" t="n">
         <v>157.9270591875376</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7478085837526</v>
+        <v>42.19219808416899</v>
       </c>
       <c r="H45" t="n">
         <v>107.8027156533609</v>
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4.669412297158479</v>
+        <v>4.669412297158422</v>
       </c>
       <c r="U45" t="n">
-        <v>131.0834480399016</v>
+        <v>224.6390585394848</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.73061027514451</v>
+        <v>25.73061027514445</v>
       </c>
       <c r="T46" t="n">
-        <v>34.74288899725299</v>
+        <v>34.74288899725293</v>
       </c>
       <c r="U46" t="n">
-        <v>93.43661871615912</v>
+        <v>93.43661871615906</v>
       </c>
       <c r="V46" t="n">
-        <v>60.33329325392219</v>
+        <v>60.33329325392214</v>
       </c>
       <c r="W46" t="n">
-        <v>93.48951907439857</v>
+        <v>93.48951907439852</v>
       </c>
       <c r="X46" t="n">
-        <v>33.53730211929229</v>
+        <v>33.53730211929224</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.14561605475126</v>
+        <v>26.1456160547512</v>
       </c>
     </row>
   </sheetData>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.22879804434783</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C8" t="n">
-        <v>26.22879804434783</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D8" t="n">
-        <v>26.22879804434783</v>
+        <v>38.67283801616371</v>
       </c>
       <c r="E8" t="n">
         <v>26.22879804434783</v>
@@ -4805,22 +4805,22 @@
         <v>3.190509136333507</v>
       </c>
       <c r="K8" t="n">
-        <v>37.05885789816839</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="L8" t="n">
-        <v>76.54140846029554</v>
+        <v>3.190509136333507</v>
       </c>
       <c r="M8" t="n">
-        <v>116.0239590224227</v>
+        <v>41.07780513029389</v>
       </c>
       <c r="N8" t="n">
-        <v>155.5065095845499</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O8" t="n">
-        <v>155.5065095845499</v>
+        <v>120.0429062545482</v>
       </c>
       <c r="P8" t="n">
-        <v>155.5065095845499</v>
+        <v>159.5254568166754</v>
       </c>
       <c r="Q8" t="n">
         <v>159.5254568166754</v>
@@ -4829,25 +4829,25 @@
         <v>119.2412505498381</v>
       </c>
       <c r="S8" t="n">
-        <v>78.95704428300093</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T8" t="n">
-        <v>78.95704428300093</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="U8" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="V8" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="W8" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="X8" t="n">
-        <v>38.67283801616371</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.22879804434783</v>
+        <v>119.2412505498381</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.67283801616371</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="C9" t="n">
-        <v>38.67283801616371</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="D9" t="n">
-        <v>38.67283801616371</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="E9" t="n">
-        <v>38.67283801616371</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="F9" t="n">
-        <v>3.190509136333507</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="G9" t="n">
-        <v>3.190509136333507</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="H9" t="n">
-        <v>3.190509136333507</v>
+        <v>43.47471540317073</v>
       </c>
       <c r="I9" t="n">
         <v>3.190509136333507</v>
@@ -4884,16 +4884,16 @@
         <v>10.58381998281841</v>
       </c>
       <c r="K9" t="n">
-        <v>10.58381998281841</v>
+        <v>50.06637054494556</v>
       </c>
       <c r="L9" t="n">
-        <v>10.58381998281841</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="M9" t="n">
-        <v>10.58381998281841</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="N9" t="n">
-        <v>41.07780513029389</v>
+        <v>80.56035569242104</v>
       </c>
       <c r="O9" t="n">
         <v>80.56035569242104</v>
@@ -4905,28 +4905,28 @@
         <v>159.5254568166754</v>
       </c>
       <c r="R9" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="S9" t="n">
-        <v>159.5254568166754</v>
+        <v>119.2412505498381</v>
       </c>
       <c r="T9" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="U9" t="n">
-        <v>159.5254568166754</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="V9" t="n">
-        <v>119.2412505498381</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="W9" t="n">
-        <v>119.2412505498381</v>
+        <v>78.95704428300093</v>
       </c>
       <c r="X9" t="n">
         <v>78.95704428300093</v>
       </c>
       <c r="Y9" t="n">
-        <v>38.67283801616371</v>
+        <v>78.95704428300093</v>
       </c>
     </row>
     <row r="10">
@@ -4945,22 +4945,22 @@
         <v>159.5254568166754</v>
       </c>
       <c r="E10" t="n">
-        <v>159.5254568166754</v>
+        <v>138.9667741164748</v>
       </c>
       <c r="F10" t="n">
-        <v>159.5254568166754</v>
+        <v>98.68256784963759</v>
       </c>
       <c r="G10" t="n">
-        <v>124.0431279368452</v>
+        <v>58.39836158280038</v>
       </c>
       <c r="H10" t="n">
-        <v>83.75892167000794</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.47471540317073</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="J10" t="n">
-        <v>3.190509136333507</v>
+        <v>18.11415531596316</v>
       </c>
       <c r="K10" t="n">
         <v>3.190509136333507</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0939592738632</v>
+        <v>1025.704549104305</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0939592738632</v>
+        <v>778.4582303366574</v>
       </c>
       <c r="D11" t="n">
-        <v>585.3328555813101</v>
+        <v>541.6971266441045</v>
       </c>
       <c r="E11" t="n">
-        <v>321.790637746647</v>
+        <v>541.6971266441045</v>
       </c>
       <c r="F11" t="n">
-        <v>33.82839190667739</v>
+        <v>541.6971266441045</v>
       </c>
       <c r="G11" t="n">
-        <v>33.82839190667739</v>
+        <v>246.6175293699718</v>
       </c>
       <c r="H11" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I11" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J11" t="n">
-        <v>76.42539836894377</v>
+        <v>76.42539836894383</v>
       </c>
       <c r="K11" t="n">
         <v>262.5438616526805</v>
@@ -5072,19 +5072,19 @@
         <v>1691.419595333869</v>
       </c>
       <c r="U11" t="n">
-        <v>1560.888943255793</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="V11" t="n">
-        <v>1560.888943255793</v>
+        <v>1483.013553491901</v>
       </c>
       <c r="W11" t="n">
-        <v>1560.888943255793</v>
+        <v>1252.388425308484</v>
       </c>
       <c r="X11" t="n">
-        <v>1353.387900228094</v>
+        <v>1025.704549104305</v>
       </c>
       <c r="Y11" t="n">
-        <v>1086.240595528837</v>
+        <v>1025.704549104305</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.8708519482719</v>
+        <v>733.6538780606992</v>
       </c>
       <c r="C12" t="n">
-        <v>205.1177368700891</v>
+        <v>684.3464600521841</v>
       </c>
       <c r="D12" t="n">
-        <v>180.9751272987007</v>
+        <v>660.2038504807956</v>
       </c>
       <c r="E12" t="n">
-        <v>146.8112953712231</v>
+        <v>502.5943214836503</v>
       </c>
       <c r="F12" t="n">
-        <v>125.3012024575076</v>
+        <v>357.6385315002672</v>
       </c>
       <c r="G12" t="n">
-        <v>111.6279009577282</v>
+        <v>220.5195329308201</v>
       </c>
       <c r="H12" t="n">
         <v>111.6279009577282</v>
       </c>
       <c r="I12" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J12" t="n">
         <v>66.98092231877615</v>
@@ -5124,19 +5124,19 @@
         <v>250.2494904826885</v>
       </c>
       <c r="L12" t="n">
-        <v>412.6846876099117</v>
+        <v>557.5263040883275</v>
       </c>
       <c r="M12" t="n">
-        <v>824.0624298514394</v>
+        <v>968.9040463298552</v>
       </c>
       <c r="N12" t="n">
-        <v>1242.688779696572</v>
+        <v>1387.530396174988</v>
       </c>
       <c r="O12" t="n">
-        <v>1575.43819969408</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="P12" t="n">
-        <v>1575.43819969408</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q12" t="n">
         <v>1691.419595333869</v>
@@ -5148,22 +5148,22 @@
         <v>1447.53871575352</v>
       </c>
       <c r="T12" t="n">
-        <v>1300.505521311541</v>
+        <v>1285.951456214965</v>
       </c>
       <c r="U12" t="n">
-        <v>1073.597381372667</v>
+        <v>1182.489013345759</v>
       </c>
       <c r="V12" t="n">
-        <v>839.3461378982681</v>
+        <v>1071.683466941028</v>
       </c>
       <c r="W12" t="n">
-        <v>710.2773433012691</v>
+        <v>942.6146723440285</v>
       </c>
       <c r="X12" t="n">
-        <v>503.7504447068466</v>
+        <v>859.5334708192737</v>
       </c>
       <c r="Y12" t="n">
-        <v>421.4677060001647</v>
+        <v>777.2507321125919</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.1841386362858</v>
+        <v>259.0114972054324</v>
       </c>
       <c r="C13" t="n">
-        <v>218.6030145633248</v>
+        <v>213.4303731324715</v>
       </c>
       <c r="D13" t="n">
-        <v>191.5380383860032</v>
+        <v>186.36539695515</v>
       </c>
       <c r="E13" t="n">
-        <v>166.5245191191061</v>
+        <v>161.3518776882528</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3348410273551</v>
+        <v>142.3348410273549</v>
       </c>
       <c r="G13" t="n">
-        <v>96.42831439787241</v>
+        <v>96.42831439787227</v>
       </c>
       <c r="H13" t="n">
-        <v>58.68080690072205</v>
+        <v>58.68080690072198</v>
       </c>
       <c r="I13" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J13" t="n">
-        <v>83.02756967032954</v>
+        <v>83.02756967032951</v>
       </c>
       <c r="K13" t="n">
         <v>215.9467083111788</v>
       </c>
       <c r="L13" t="n">
-        <v>408.0057577934579</v>
+        <v>408.005757793458</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5210528970192</v>
+        <v>614.5210528970194</v>
       </c>
       <c r="N13" t="n">
-        <v>824.1439887948999</v>
+        <v>824.1439887949002</v>
       </c>
       <c r="O13" t="n">
-        <v>1011.664187607627</v>
+        <v>1011.664187607628</v>
       </c>
       <c r="P13" t="n">
-        <v>1166.359658847677</v>
+        <v>1166.359658847678</v>
       </c>
       <c r="Q13" t="n">
         <v>1227.526033874094</v>
@@ -5224,25 +5224,25 @@
         <v>1186.315561731649</v>
       </c>
       <c r="S13" t="n">
-        <v>1089.222200126406</v>
+        <v>1089.222200126407</v>
       </c>
       <c r="T13" t="n">
-        <v>983.0255266806496</v>
+        <v>983.0255266806503</v>
       </c>
       <c r="U13" t="n">
-        <v>817.5422575592303</v>
+        <v>817.5422575592311</v>
       </c>
       <c r="V13" t="n">
-        <v>685.496690924919</v>
+        <v>685.4966909249199</v>
       </c>
       <c r="W13" t="n">
-        <v>519.9599870982073</v>
+        <v>519.9599870982083</v>
       </c>
       <c r="X13" t="n">
-        <v>414.9810781756434</v>
+        <v>414.9810781756445</v>
       </c>
       <c r="Y13" t="n">
-        <v>317.468518813222</v>
+        <v>317.4685188132231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.684900536977</v>
+        <v>969.9287118618582</v>
       </c>
       <c r="C14" t="n">
-        <v>917.4385817693292</v>
+        <v>869.0465875347645</v>
       </c>
       <c r="D14" t="n">
-        <v>680.6774780767767</v>
+        <v>869.0465875347645</v>
       </c>
       <c r="E14" t="n">
-        <v>680.6774780767767</v>
+        <v>605.5043697001015</v>
       </c>
       <c r="F14" t="n">
-        <v>392.7152322368073</v>
+        <v>605.5043697001015</v>
       </c>
       <c r="G14" t="n">
-        <v>97.63563496267443</v>
+        <v>310.4247724259687</v>
       </c>
       <c r="H14" t="n">
-        <v>97.63563496267443</v>
+        <v>97.63563496267442</v>
       </c>
       <c r="I14" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J14" t="n">
-        <v>76.42539836894386</v>
+        <v>76.42539836894385</v>
       </c>
       <c r="K14" t="n">
-        <v>262.5438616526806</v>
+        <v>262.5438616526805</v>
       </c>
       <c r="L14" t="n">
-        <v>545.4093511996119</v>
+        <v>545.4093511996118</v>
       </c>
       <c r="M14" t="n">
-        <v>875.3640045234897</v>
+        <v>875.3640045234895</v>
       </c>
       <c r="N14" t="n">
-        <v>1195.140494102848</v>
+        <v>1195.140494102847</v>
       </c>
       <c r="O14" t="n">
-        <v>1450.968014056182</v>
+        <v>1450.968014056181</v>
       </c>
       <c r="P14" t="n">
         <v>1632.37209038949</v>
@@ -5303,25 +5303,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S14" t="n">
-        <v>1691.419595333869</v>
+        <v>1618.768647459595</v>
       </c>
       <c r="T14" t="n">
-        <v>1646.472007540797</v>
+        <v>1618.768647459595</v>
       </c>
       <c r="U14" t="n">
-        <v>1646.472007540797</v>
+        <v>1488.237995381518</v>
       </c>
       <c r="V14" t="n">
-        <v>1646.472007540797</v>
+        <v>1488.237995381518</v>
       </c>
       <c r="W14" t="n">
-        <v>1415.84687935738</v>
+        <v>1488.237995381518</v>
       </c>
       <c r="X14" t="n">
-        <v>1164.684900536977</v>
+        <v>1237.076016561115</v>
       </c>
       <c r="Y14" t="n">
-        <v>1164.684900536977</v>
+        <v>969.9287118618582</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.8708519482717</v>
+        <v>449.0846221365097</v>
       </c>
       <c r="C15" t="n">
-        <v>328.5634339397566</v>
+        <v>276.3315070583268</v>
       </c>
       <c r="D15" t="n">
-        <v>304.4208243683682</v>
+        <v>128.7432004172707</v>
       </c>
       <c r="E15" t="n">
-        <v>270.2569924408907</v>
+        <v>69.01178632017212</v>
       </c>
       <c r="F15" t="n">
-        <v>125.3012024575076</v>
+        <v>47.50169340645672</v>
       </c>
       <c r="G15" t="n">
-        <v>111.6279009577282</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6279009577282</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I15" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J15" t="n">
-        <v>33.82839190667739</v>
+        <v>66.98092231877615</v>
       </c>
       <c r="K15" t="n">
-        <v>217.0969600705897</v>
+        <v>66.98092231877615</v>
       </c>
       <c r="L15" t="n">
-        <v>524.3737736762287</v>
+        <v>278.0318790733223</v>
       </c>
       <c r="M15" t="n">
-        <v>935.7515159177565</v>
+        <v>689.40962131485</v>
       </c>
       <c r="N15" t="n">
-        <v>1354.377865762889</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O15" t="n">
         <v>1440.785391157491</v>
@@ -5379,28 +5379,28 @@
         <v>1691.419595333869</v>
       </c>
       <c r="R15" t="n">
-        <v>1691.419595333869</v>
+        <v>1613.039876945816</v>
       </c>
       <c r="S15" t="n">
-        <v>1649.364131211242</v>
+        <v>1570.984412823188</v>
       </c>
       <c r="T15" t="n">
-        <v>1573.5447069575</v>
+        <v>1495.164988569446</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.636567018626</v>
+        <v>1391.70254570024</v>
       </c>
       <c r="V15" t="n">
-        <v>1112.385323544227</v>
+        <v>1157.451302225841</v>
       </c>
       <c r="W15" t="n">
-        <v>859.8708318775606</v>
+        <v>1028.382507628842</v>
       </c>
       <c r="X15" t="n">
-        <v>653.3439332831381</v>
+        <v>821.8556090344197</v>
       </c>
       <c r="Y15" t="n">
-        <v>447.6154975067885</v>
+        <v>616.1271732580701</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>259.0114972054319</v>
+        <v>259.0114972054325</v>
       </c>
       <c r="C16" t="n">
-        <v>213.430373132471</v>
+        <v>213.4303731324717</v>
       </c>
       <c r="D16" t="n">
-        <v>186.3653969551495</v>
+        <v>186.3653969551501</v>
       </c>
       <c r="E16" t="n">
-        <v>161.3518776882524</v>
+        <v>161.351877688253</v>
       </c>
       <c r="F16" t="n">
         <v>142.3348410273549</v>
@@ -5431,22 +5431,22 @@
         <v>58.68080690072198</v>
       </c>
       <c r="I16" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J16" t="n">
-        <v>83.02756967032948</v>
+        <v>83.02756967032957</v>
       </c>
       <c r="K16" t="n">
-        <v>215.9467083111788</v>
+        <v>215.9467083111789</v>
       </c>
       <c r="L16" t="n">
-        <v>408.0057577934579</v>
+        <v>408.0057577934581</v>
       </c>
       <c r="M16" t="n">
-        <v>614.5210528970193</v>
+        <v>614.5210528970194</v>
       </c>
       <c r="N16" t="n">
-        <v>824.1439887949001</v>
+        <v>824.1439887949002</v>
       </c>
       <c r="O16" t="n">
         <v>1011.664187607628</v>
@@ -5467,19 +5467,19 @@
         <v>983.0255266806502</v>
       </c>
       <c r="U16" t="n">
-        <v>817.5422575592306</v>
+        <v>817.5422575592313</v>
       </c>
       <c r="V16" t="n">
-        <v>685.4966909249194</v>
+        <v>685.4966909249201</v>
       </c>
       <c r="W16" t="n">
-        <v>519.9599870982079</v>
+        <v>519.9599870982084</v>
       </c>
       <c r="X16" t="n">
-        <v>414.9810781756439</v>
+        <v>414.9810781756446</v>
       </c>
       <c r="Y16" t="n">
-        <v>317.4685188132225</v>
+        <v>317.4685188132232</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958.3054331173558</v>
+        <v>958.3054331173557</v>
       </c>
       <c r="C17" t="n">
-        <v>814.2097109599715</v>
+        <v>814.2097109599713</v>
       </c>
       <c r="D17" t="n">
-        <v>680.5992038776824</v>
+        <v>680.5992038776822</v>
       </c>
       <c r="E17" t="n">
-        <v>520.207582653283</v>
+        <v>520.2075826532828</v>
       </c>
       <c r="F17" t="n">
-        <v>335.3959334235772</v>
+        <v>335.3959334235769</v>
       </c>
       <c r="G17" t="n">
         <v>143.4669327597081</v>
       </c>
       <c r="H17" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I17" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J17" t="n">
-        <v>76.42539836894386</v>
+        <v>76.42539836894389</v>
       </c>
       <c r="K17" t="n">
         <v>262.5438616526806</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4093511996119</v>
+        <v>545.4093511996118</v>
       </c>
       <c r="M17" t="n">
-        <v>875.3640045234897</v>
+        <v>875.3640045234895</v>
       </c>
       <c r="N17" t="n">
-        <v>1195.140494102848</v>
+        <v>1195.140494102847</v>
       </c>
       <c r="O17" t="n">
-        <v>1450.968014056182</v>
+        <v>1450.968014056181</v>
       </c>
       <c r="P17" t="n">
         <v>1632.37209038949</v>
       </c>
       <c r="Q17" t="n">
-        <v>1691.41959533387</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="R17" t="n">
         <v>1691.419595333869</v>
@@ -5546,7 +5546,7 @@
         <v>1691.419595333869</v>
       </c>
       <c r="U17" t="n">
-        <v>1664.039539866057</v>
+        <v>1664.039539866056</v>
       </c>
       <c r="V17" t="n">
         <v>1558.784094634352</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>586.9463350164394</v>
+        <v>398.4478347615973</v>
       </c>
       <c r="C18" t="n">
-        <v>414.1932199382567</v>
+        <v>225.6947196834145</v>
       </c>
       <c r="D18" t="n">
-        <v>414.1932199382567</v>
+        <v>78.10641304235833</v>
       </c>
       <c r="E18" t="n">
-        <v>256.5836909411114</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="F18" t="n">
-        <v>111.6279009577282</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6279009577282</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6279009577282</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I18" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J18" t="n">
-        <v>66.98092231877615</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="K18" t="n">
-        <v>250.2494904826885</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="L18" t="n">
-        <v>557.5263040883275</v>
+        <v>278.0318790733223</v>
       </c>
       <c r="M18" t="n">
-        <v>968.9040463298552</v>
+        <v>689.40962131485</v>
       </c>
       <c r="N18" t="n">
-        <v>1324.803995517702</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O18" t="n">
-        <v>1324.803995517702</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P18" t="n">
-        <v>1575.43819969408</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q18" t="n">
         <v>1691.419595333869</v>
@@ -5619,25 +5619,25 @@
         <v>1691.419595333869</v>
       </c>
       <c r="S18" t="n">
-        <v>1525.918434141574</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="T18" t="n">
-        <v>1525.918434141574</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="U18" t="n">
-        <v>1299.0102942027</v>
+        <v>1464.511455394996</v>
       </c>
       <c r="V18" t="n">
-        <v>1291.355344408233</v>
+        <v>1230.260211920596</v>
       </c>
       <c r="W18" t="n">
-        <v>1166.244220508772</v>
+        <v>977.7457202539298</v>
       </c>
       <c r="X18" t="n">
-        <v>959.7173219143494</v>
+        <v>771.2188216595073</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.9888861379999</v>
+        <v>565.4903858831577</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="C19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="D19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="E19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="F19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="G19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="H19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="I19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="J19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
       <c r="K19" t="n">
-        <v>45.75840284954536</v>
+        <v>45.75840284954535</v>
       </c>
       <c r="L19" t="n">
         <v>116.8283246338432</v>
@@ -5689,34 +5689,34 @@
         <v>357.5193713540688</v>
       </c>
       <c r="P19" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="Q19" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="R19" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="S19" t="n">
-        <v>192.3165308061212</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="T19" t="n">
-        <v>189.2704539706284</v>
+        <v>388.1796380606447</v>
       </c>
       <c r="U19" t="n">
-        <v>126.9377814594729</v>
+        <v>325.8469655494891</v>
       </c>
       <c r="V19" t="n">
-        <v>98.04281143542541</v>
+        <v>296.9519955254416</v>
       </c>
       <c r="W19" t="n">
-        <v>35.65670421897752</v>
+        <v>234.5658883089937</v>
       </c>
       <c r="X19" t="n">
-        <v>33.82839190667739</v>
+        <v>232.7375759966935</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.82839190667739</v>
+        <v>33.82839190667738</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>958.3054331173551</v>
+        <v>958.3054331173565</v>
       </c>
       <c r="C20" t="n">
-        <v>814.2097109599707</v>
+        <v>814.2097109599722</v>
       </c>
       <c r="D20" t="n">
-        <v>680.5992038776816</v>
+        <v>680.5992038776831</v>
       </c>
       <c r="E20" t="n">
-        <v>520.2075826532822</v>
+        <v>520.2075826532837</v>
       </c>
       <c r="F20" t="n">
-        <v>335.3959334235764</v>
+        <v>335.3959334235778</v>
       </c>
       <c r="G20" t="n">
         <v>143.4669327597081</v>
@@ -5750,52 +5750,52 @@
         <v>33.82839190667739</v>
       </c>
       <c r="J20" t="n">
-        <v>76.425398368944</v>
+        <v>76.42539836894386</v>
       </c>
       <c r="K20" t="n">
-        <v>262.5438616526807</v>
+        <v>262.5438616526806</v>
       </c>
       <c r="L20" t="n">
-        <v>545.409351199612</v>
+        <v>545.4093511996119</v>
       </c>
       <c r="M20" t="n">
         <v>875.3640045234897</v>
       </c>
       <c r="N20" t="n">
-        <v>1195.140494102847</v>
+        <v>1195.140494102848</v>
       </c>
       <c r="O20" t="n">
-        <v>1450.968014056181</v>
+        <v>1450.968014056182</v>
       </c>
       <c r="P20" t="n">
         <v>1632.37209038949</v>
       </c>
       <c r="Q20" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="R20" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="S20" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="T20" t="n">
         <v>1691.419595333869</v>
       </c>
       <c r="U20" t="n">
-        <v>1664.039539866056</v>
+        <v>1664.039539866057</v>
       </c>
       <c r="V20" t="n">
-        <v>1558.784094634351</v>
+        <v>1558.784094634352</v>
       </c>
       <c r="W20" t="n">
-        <v>1431.309563061197</v>
+        <v>1431.309563061198</v>
       </c>
       <c r="X20" t="n">
-        <v>1283.298180851059</v>
+        <v>1283.29818085106</v>
       </c>
       <c r="Y20" t="n">
-        <v>1119.301472762065</v>
+        <v>1119.301472762066</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>398.4478347615975</v>
+        <v>773.2607037334069</v>
       </c>
       <c r="C21" t="n">
-        <v>225.6947196834147</v>
+        <v>600.507588655224</v>
       </c>
       <c r="D21" t="n">
-        <v>78.10641304235855</v>
+        <v>452.9192820141679</v>
       </c>
       <c r="E21" t="n">
-        <v>33.82839190667739</v>
+        <v>295.3097530170226</v>
       </c>
       <c r="F21" t="n">
-        <v>33.82839190667739</v>
+        <v>150.3539630336394</v>
       </c>
       <c r="G21" t="n">
         <v>33.82839190667739</v>
@@ -5829,52 +5829,52 @@
         <v>33.82839190667739</v>
       </c>
       <c r="J21" t="n">
-        <v>66.98092231877615</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="K21" t="n">
-        <v>250.2494904826885</v>
+        <v>33.82839190667739</v>
       </c>
       <c r="L21" t="n">
-        <v>557.5263040883275</v>
+        <v>278.0318790733228</v>
       </c>
       <c r="M21" t="n">
-        <v>968.9040463298552</v>
+        <v>689.4096213148505</v>
       </c>
       <c r="N21" t="n">
-        <v>992.0545755201936</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O21" t="n">
-        <v>1324.803995517702</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P21" t="n">
-        <v>1575.43819969408</v>
+        <v>1691.419595333869</v>
       </c>
       <c r="Q21" t="n">
         <v>1691.419595333869</v>
       </c>
       <c r="R21" t="n">
-        <v>1691.419595333869</v>
+        <v>1613.039876945816</v>
       </c>
       <c r="S21" t="n">
-        <v>1691.419595333869</v>
+        <v>1613.039876945816</v>
       </c>
       <c r="T21" t="n">
-        <v>1691.419595333869</v>
+        <v>1613.039876945816</v>
       </c>
       <c r="U21" t="n">
-        <v>1464.511455394996</v>
+        <v>1612.728030686874</v>
       </c>
       <c r="V21" t="n">
-        <v>1230.260211920597</v>
+        <v>1605.073080892406</v>
       </c>
       <c r="W21" t="n">
-        <v>977.74572025393</v>
+        <v>1352.558589225739</v>
       </c>
       <c r="X21" t="n">
-        <v>771.2188216595075</v>
+        <v>1146.031690631317</v>
       </c>
       <c r="Y21" t="n">
-        <v>565.490385883158</v>
+        <v>940.3032548549673</v>
       </c>
     </row>
     <row r="22">
@@ -5926,25 +5926,25 @@
         <v>357.5193713540688</v>
       </c>
       <c r="P22" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="Q22" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="R22" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="S22" t="n">
-        <v>192.3165308061212</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="T22" t="n">
-        <v>189.2704539706284</v>
+        <v>388.1796380606447</v>
       </c>
       <c r="U22" t="n">
-        <v>126.9377814594729</v>
+        <v>325.8469655494892</v>
       </c>
       <c r="V22" t="n">
-        <v>98.04281143542541</v>
+        <v>296.9519955254417</v>
       </c>
       <c r="W22" t="n">
         <v>35.65670421897752</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>958.305433117356</v>
+        <v>958.3054331173564</v>
       </c>
       <c r="C23" t="n">
-        <v>814.2097109599716</v>
+        <v>814.2097109599721</v>
       </c>
       <c r="D23" t="n">
-        <v>680.5992038776825</v>
+        <v>680.5992038776831</v>
       </c>
       <c r="E23" t="n">
-        <v>520.2075826532831</v>
+        <v>520.2075826532837</v>
       </c>
       <c r="F23" t="n">
-        <v>335.3959334235773</v>
+        <v>335.3959334235778</v>
       </c>
       <c r="G23" t="n">
         <v>143.4669327597081</v>
@@ -5987,34 +5987,34 @@
         <v>33.82839190667739</v>
       </c>
       <c r="J23" t="n">
-        <v>76.42539836894389</v>
+        <v>76.42539836894386</v>
       </c>
       <c r="K23" t="n">
         <v>262.5438616526806</v>
       </c>
       <c r="L23" t="n">
-        <v>545.409351199612</v>
+        <v>545.4093511996119</v>
       </c>
       <c r="M23" t="n">
-        <v>875.3640045234896</v>
+        <v>875.3640045234897</v>
       </c>
       <c r="N23" t="n">
-        <v>1195.140494102847</v>
+        <v>1195.140494102848</v>
       </c>
       <c r="O23" t="n">
-        <v>1450.968014056181</v>
+        <v>1450.968014056182</v>
       </c>
       <c r="P23" t="n">
         <v>1632.37209038949</v>
       </c>
       <c r="Q23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="R23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="S23" t="n">
-        <v>1691.419595333869</v>
+        <v>1691.41959533387</v>
       </c>
       <c r="T23" t="n">
         <v>1691.419595333869</v>
@@ -6023,10 +6023,10 @@
         <v>1664.039539866057</v>
       </c>
       <c r="V23" t="n">
-        <v>1558.784094634352</v>
+        <v>1558.784094634353</v>
       </c>
       <c r="W23" t="n">
-        <v>1431.309563061198</v>
+        <v>1431.309563061199</v>
       </c>
       <c r="X23" t="n">
         <v>1283.29818085106</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.7351326064447</v>
+        <v>793.854131175892</v>
       </c>
       <c r="C24" t="n">
-        <v>483.982017528262</v>
+        <v>621.1010160977091</v>
       </c>
       <c r="D24" t="n">
-        <v>336.3937108872058</v>
+        <v>473.5127094566529</v>
       </c>
       <c r="E24" t="n">
-        <v>178.7841818900605</v>
+        <v>315.9031804595076</v>
       </c>
       <c r="F24" t="n">
-        <v>33.82839190667739</v>
+        <v>170.9473904761245</v>
       </c>
       <c r="G24" t="n">
         <v>33.82839190667739</v>
@@ -6072,16 +6072,16 @@
         <v>33.82839190667739</v>
       </c>
       <c r="L24" t="n">
-        <v>341.1052055123164</v>
+        <v>278.0318790733228</v>
       </c>
       <c r="M24" t="n">
-        <v>752.4829477538442</v>
+        <v>689.4096213148505</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.109297598977</v>
+        <v>1108.035971159983</v>
       </c>
       <c r="O24" t="n">
-        <v>1503.858717596485</v>
+        <v>1440.785391157491</v>
       </c>
       <c r="P24" t="n">
         <v>1691.419595333869</v>
@@ -6102,16 +6102,16 @@
         <v>1691.107749074927</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.547509765444</v>
+        <v>1625.666508334891</v>
       </c>
       <c r="W24" t="n">
-        <v>1236.033018098777</v>
+        <v>1373.152016668224</v>
       </c>
       <c r="X24" t="n">
-        <v>1029.506119504355</v>
+        <v>1166.625118073802</v>
       </c>
       <c r="Y24" t="n">
-        <v>823.7776837280052</v>
+        <v>960.8966822974525</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="C25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="D25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="F25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="G25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="H25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="I25" t="n">
         <v>33.82839190667739</v>
@@ -6163,34 +6163,34 @@
         <v>357.5193713540688</v>
       </c>
       <c r="P25" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="Q25" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="R25" t="n">
-        <v>391.2257148961375</v>
+        <v>391.2257148961374</v>
       </c>
       <c r="S25" t="n">
-        <v>391.2257148961375</v>
+        <v>340.6146428698335</v>
       </c>
       <c r="T25" t="n">
-        <v>388.1796380606448</v>
+        <v>337.5685660343408</v>
       </c>
       <c r="U25" t="n">
-        <v>325.8469655494893</v>
+        <v>275.2358935231853</v>
       </c>
       <c r="V25" t="n">
-        <v>296.9519955254418</v>
+        <v>246.3409234991377</v>
       </c>
       <c r="W25" t="n">
-        <v>234.5658883089939</v>
+        <v>183.9548162826898</v>
       </c>
       <c r="X25" t="n">
-        <v>232.7375759966937</v>
+        <v>182.1265039703897</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.82839190667739</v>
+        <v>182.1265039703897</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1519.798364829468</v>
+        <v>1519.798364829467</v>
       </c>
       <c r="C26" t="n">
         <v>1293.25997242658</v>
       </c>
       <c r="D26" t="n">
-        <v>1077.206795098788</v>
+        <v>1077.206795098787</v>
       </c>
       <c r="E26" t="n">
-        <v>834.3725036288849</v>
+        <v>834.3725036288847</v>
       </c>
       <c r="F26" t="n">
-        <v>567.1181841536757</v>
+        <v>567.1181841536758</v>
       </c>
       <c r="G26" t="n">
-        <v>292.7465132443034</v>
+        <v>292.7465132443035</v>
       </c>
       <c r="H26" t="n">
         <v>100.6653021457695</v>
@@ -6224,13 +6224,13 @@
         <v>57.56598545453298</v>
       </c>
       <c r="J26" t="n">
-        <v>241.4479582448831</v>
+        <v>241.4479582448826</v>
       </c>
       <c r="K26" t="n">
-        <v>568.8513878567028</v>
+        <v>568.8513878567023</v>
       </c>
       <c r="L26" t="n">
-        <v>993.0018437317171</v>
+        <v>993.001843731717</v>
       </c>
       <c r="M26" t="n">
         <v>1464.241463383678</v>
@@ -6260,16 +6260,16 @@
         <v>2637.745822805684</v>
       </c>
       <c r="V26" t="n">
-        <v>2450.047707328477</v>
+        <v>2450.047707328476</v>
       </c>
       <c r="W26" t="n">
-        <v>2240.13050550982</v>
+        <v>2240.130505509819</v>
       </c>
       <c r="X26" t="n">
-        <v>2009.676453054178</v>
+        <v>2009.676453054177</v>
       </c>
       <c r="Y26" t="n">
-        <v>1763.237074719681</v>
+        <v>1763.23707471968</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.4727261543004</v>
+        <v>817.5917247237476</v>
       </c>
       <c r="C27" t="n">
-        <v>507.7196110761176</v>
+        <v>644.8386096455647</v>
       </c>
       <c r="D27" t="n">
-        <v>360.1313044350615</v>
+        <v>497.2503030045085</v>
       </c>
       <c r="E27" t="n">
-        <v>202.5217754379161</v>
+        <v>339.6407740073632</v>
       </c>
       <c r="F27" t="n">
-        <v>57.56598545453298</v>
+        <v>194.6849840239801</v>
       </c>
       <c r="G27" t="n">
         <v>57.56598545453298</v>
@@ -6330,25 +6330,25 @@
         <v>2051.29136029275</v>
       </c>
       <c r="S27" t="n">
-        <v>2028.555984615554</v>
+        <v>2021.521359750573</v>
       </c>
       <c r="T27" t="n">
-        <v>1973.444486726572</v>
+        <v>1966.409861861591</v>
       </c>
       <c r="U27" t="n">
-        <v>1746.536346787699</v>
+        <v>1739.501721922718</v>
       </c>
       <c r="V27" t="n">
-        <v>1512.2851033133</v>
+        <v>1505.250478448319</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.770611646633</v>
+        <v>1252.735986781652</v>
       </c>
       <c r="X27" t="n">
-        <v>1053.24371305221</v>
+        <v>1046.209088187229</v>
       </c>
       <c r="Y27" t="n">
-        <v>847.5152772758609</v>
+        <v>840.4806524108798</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.9662476308176</v>
+        <v>142.9662476308172</v>
       </c>
       <c r="C28" t="n">
-        <v>118.0930499226172</v>
+        <v>118.0930499226169</v>
       </c>
       <c r="D28" t="n">
-        <v>111.7360001100562</v>
+        <v>111.7360001100559</v>
       </c>
       <c r="E28" t="n">
-        <v>107.4304072079195</v>
+        <v>107.4304072079193</v>
       </c>
       <c r="F28" t="n">
-        <v>103.948655480929</v>
+        <v>103.9486554809289</v>
       </c>
       <c r="G28" t="n">
-        <v>78.75005521620693</v>
+        <v>78.75005521620682</v>
       </c>
       <c r="H28" t="n">
-        <v>61.7104740838171</v>
+        <v>61.71047408381705</v>
       </c>
       <c r="I28" t="n">
         <v>57.56598545453298</v>
       </c>
       <c r="J28" t="n">
-        <v>127.0610018482869</v>
+        <v>57.56598545453298</v>
       </c>
       <c r="K28" t="n">
-        <v>138.9910127911549</v>
+        <v>210.7809627254841</v>
       </c>
       <c r="L28" t="n">
-        <v>210.0609345754527</v>
+        <v>423.1358508378651</v>
       </c>
       <c r="M28" t="n">
-        <v>436.8720683091159</v>
+        <v>649.9469845715282</v>
       </c>
       <c r="N28" t="n">
-        <v>525.5058765090153</v>
+        <v>738.5807927714276</v>
       </c>
       <c r="O28" t="n">
-        <v>733.3219139518444</v>
+        <v>805.1118638861738</v>
       </c>
       <c r="P28" t="n">
-        <v>908.3132238219962</v>
+        <v>925.1094470166346</v>
       </c>
       <c r="Q28" t="n">
-        <v>925.1094470166355</v>
+        <v>925.1094470166346</v>
       </c>
       <c r="R28" t="n">
-        <v>904.6069012389512</v>
+        <v>904.6069012389503</v>
       </c>
       <c r="S28" t="n">
-        <v>828.2214659984688</v>
+        <v>828.2214659984679</v>
       </c>
       <c r="T28" t="n">
-        <v>742.7327189174728</v>
+        <v>742.732718917472</v>
       </c>
       <c r="U28" t="n">
-        <v>597.9573761608141</v>
+        <v>597.9573761608133</v>
       </c>
       <c r="V28" t="n">
-        <v>486.6197358912633</v>
+        <v>486.6197358912626</v>
       </c>
       <c r="W28" t="n">
-        <v>341.7909584293121</v>
+        <v>341.7909584293116</v>
       </c>
       <c r="X28" t="n">
-        <v>257.5199758715087</v>
+        <v>257.5199758715082</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.7153428738478</v>
+        <v>180.7153428738474</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.798364829466</v>
+        <v>1519.798364829467</v>
       </c>
       <c r="C29" t="n">
         <v>1293.259972426579</v>
       </c>
       <c r="D29" t="n">
-        <v>1077.206795098786</v>
+        <v>1077.206795098787</v>
       </c>
       <c r="E29" t="n">
-        <v>834.3725036288838</v>
+        <v>834.372503628884</v>
       </c>
       <c r="F29" t="n">
-        <v>567.1181841536749</v>
+        <v>567.1181841536751</v>
       </c>
       <c r="G29" t="n">
-        <v>292.7465132443026</v>
+        <v>292.7465132443028</v>
       </c>
       <c r="H29" t="n">
         <v>100.6653021457695</v>
       </c>
       <c r="I29" t="n">
-        <v>57.56598545453298</v>
+        <v>57.56598545453296</v>
       </c>
       <c r="J29" t="n">
-        <v>241.4479582448826</v>
+        <v>241.4479582448827</v>
       </c>
       <c r="K29" t="n">
-        <v>568.8513878567023</v>
+        <v>568.8513878567024</v>
       </c>
       <c r="L29" t="n">
         <v>993.0018437317169</v>
       </c>
       <c r="M29" t="n">
-        <v>1464.241463383677</v>
+        <v>1464.241463383678</v>
       </c>
       <c r="N29" t="n">
         <v>1925.302919291119</v>
@@ -6485,13 +6485,13 @@
         <v>2845.43691950639</v>
       </c>
       <c r="R29" t="n">
-        <v>2878.299272726649</v>
+        <v>2878.299272726648</v>
       </c>
       <c r="S29" t="n">
-        <v>2826.356251217135</v>
+        <v>2826.356251217134</v>
       </c>
       <c r="T29" t="n">
-        <v>2747.568548519</v>
+        <v>2747.568548518999</v>
       </c>
       <c r="U29" t="n">
         <v>2637.745822805683</v>
@@ -6500,13 +6500,13 @@
         <v>2450.047707328476</v>
       </c>
       <c r="W29" t="n">
-        <v>2240.130505509818</v>
+        <v>2240.130505509819</v>
       </c>
       <c r="X29" t="n">
         <v>2009.676453054177</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.237074719679</v>
+        <v>1763.23707471968</v>
       </c>
     </row>
     <row r="30">
@@ -6525,31 +6525,31 @@
         <v>439.8988607424439</v>
       </c>
       <c r="E30" t="n">
-        <v>426.4429551797269</v>
+        <v>282.2893317452986</v>
       </c>
       <c r="F30" t="n">
-        <v>281.4871651963438</v>
+        <v>137.3335417619154</v>
       </c>
       <c r="G30" t="n">
-        <v>244.2571264786757</v>
+        <v>57.56598545453296</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3654945055838</v>
+        <v>57.56598545453296</v>
       </c>
       <c r="I30" t="n">
-        <v>57.56598545453298</v>
+        <v>57.56598545453296</v>
       </c>
       <c r="J30" t="n">
-        <v>90.71851586663175</v>
+        <v>90.71851586663172</v>
       </c>
       <c r="K30" t="n">
-        <v>273.9870840305441</v>
+        <v>273.987084030544</v>
       </c>
       <c r="L30" t="n">
-        <v>581.2638976361831</v>
+        <v>581.2638976361829</v>
       </c>
       <c r="M30" t="n">
-        <v>992.6416398777108</v>
+        <v>992.6416398777106</v>
       </c>
       <c r="N30" t="n">
         <v>1430.306058867128</v>
@@ -6610,34 +6610,34 @@
         <v>103.9486554809289</v>
       </c>
       <c r="G31" t="n">
-        <v>78.75005521620682</v>
+        <v>78.7500552162068</v>
       </c>
       <c r="H31" t="n">
-        <v>61.71047408381705</v>
+        <v>61.71047408381703</v>
       </c>
       <c r="I31" t="n">
-        <v>57.56598545453298</v>
+        <v>57.56598545453296</v>
       </c>
       <c r="J31" t="n">
-        <v>57.56598545453298</v>
+        <v>127.0610018482869</v>
       </c>
       <c r="K31" t="n">
-        <v>210.7809627254841</v>
+        <v>138.9910127911549</v>
       </c>
       <c r="L31" t="n">
-        <v>423.1358508378651</v>
+        <v>351.3459009035359</v>
       </c>
       <c r="M31" t="n">
-        <v>508.6620182434451</v>
+        <v>436.872068309116</v>
       </c>
       <c r="N31" t="n">
-        <v>683.5870660317366</v>
+        <v>525.5058765090154</v>
       </c>
       <c r="O31" t="n">
-        <v>750.1181371464828</v>
+        <v>733.3219139518446</v>
       </c>
       <c r="P31" t="n">
-        <v>925.1094470166346</v>
+        <v>908.3132238219964</v>
       </c>
       <c r="Q31" t="n">
         <v>925.1094470166346</v>
@@ -6677,55 +6677,55 @@
         <v>1443.651546775641</v>
       </c>
       <c r="C32" t="n">
-        <v>1227.53548421811</v>
+        <v>1227.535484218109</v>
       </c>
       <c r="D32" t="n">
-        <v>1021.904636735674</v>
+        <v>1021.904636735673</v>
       </c>
       <c r="E32" t="n">
-        <v>789.492675111127</v>
+        <v>789.4926751111268</v>
       </c>
       <c r="F32" t="n">
-        <v>532.6606854812742</v>
+        <v>532.660685481274</v>
       </c>
       <c r="G32" t="n">
-        <v>268.7113444172577</v>
+        <v>268.7113444172578</v>
       </c>
       <c r="H32" t="n">
-        <v>87.05246316407988</v>
+        <v>87.05246316407982</v>
       </c>
       <c r="I32" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="J32" t="n">
         <v>248.4723745899826</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0907296832358</v>
+        <v>532.3986231812009</v>
       </c>
       <c r="L32" t="n">
-        <v>868.9562192301672</v>
+        <v>966.764004537649</v>
       </c>
       <c r="M32" t="n">
-        <v>1253.641379159835</v>
+        <v>1448.218549671043</v>
       </c>
       <c r="N32" t="n">
-        <v>1724.91776054871</v>
+        <v>1919.494931059918</v>
       </c>
       <c r="O32" t="n">
-        <v>2132.24517231156</v>
+        <v>2326.822342822768</v>
       </c>
       <c r="P32" t="n">
-        <v>2465.149140454385</v>
+        <v>2659.726310965594</v>
       </c>
       <c r="Q32" t="n">
-        <v>2675.696537208281</v>
+        <v>2718.773815909973</v>
       </c>
       <c r="R32" t="n">
-        <v>2718.773815909974</v>
+        <v>2718.773815909973</v>
       </c>
       <c r="S32" t="n">
-        <v>2677.253124245815</v>
+        <v>2677.253124245816</v>
       </c>
       <c r="T32" t="n">
         <v>2608.887751393037</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.2822170179669</v>
+        <v>522.7062637381825</v>
       </c>
       <c r="C33" t="n">
-        <v>504.5291019397841</v>
+        <v>349.9531486599997</v>
       </c>
       <c r="D33" t="n">
-        <v>356.9407952987279</v>
+        <v>202.3648420189435</v>
       </c>
       <c r="E33" t="n">
         <v>199.3312663015826</v>
       </c>
       <c r="F33" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="G33" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="H33" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="I33" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="J33" t="n">
-        <v>87.52800673029824</v>
+        <v>87.52800673029822</v>
       </c>
       <c r="K33" t="n">
-        <v>270.7965748942106</v>
+        <v>270.7965748942105</v>
       </c>
       <c r="L33" t="n">
-        <v>578.0733884998496</v>
+        <v>578.0733884998494</v>
       </c>
       <c r="M33" t="n">
-        <v>989.4511307413773</v>
+        <v>989.4511307413771</v>
       </c>
       <c r="N33" t="n">
         <v>1427.115549730794</v>
@@ -6795,7 +6795,7 @@
         <v>1759.864969728302</v>
       </c>
       <c r="P33" t="n">
-        <v>2010.499173904681</v>
+        <v>2010.49917390468</v>
       </c>
       <c r="Q33" t="n">
         <v>2126.48056954447</v>
@@ -6804,25 +6804,25 @@
         <v>2126.48056954447</v>
       </c>
       <c r="S33" t="n">
-        <v>2115.555361631959</v>
+        <v>2014.943145633864</v>
       </c>
       <c r="T33" t="n">
-        <v>1916.290240308549</v>
+        <v>1815.678024310454</v>
       </c>
       <c r="U33" t="n">
-        <v>1743.345837651365</v>
+        <v>1588.769884371581</v>
       </c>
       <c r="V33" t="n">
-        <v>1509.094594176966</v>
+        <v>1354.518640897182</v>
       </c>
       <c r="W33" t="n">
-        <v>1256.580102510299</v>
+        <v>1102.004149230515</v>
       </c>
       <c r="X33" t="n">
-        <v>1050.053203915877</v>
+        <v>895.4772506360925</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.3247681395274</v>
+        <v>689.748814859743</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.2198658874434</v>
+        <v>90.21986588744322</v>
       </c>
       <c r="C34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.768998024599</v>
       </c>
       <c r="D34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.768998024599</v>
       </c>
       <c r="E34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.768998024599</v>
       </c>
       <c r="F34" t="n">
-        <v>75.76899802459913</v>
+        <v>75.768998024599</v>
       </c>
       <c r="G34" t="n">
-        <v>60.99272760523316</v>
+        <v>60.99272760523309</v>
       </c>
       <c r="H34" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="I34" t="n">
-        <v>54.37547631819947</v>
+        <v>54.37547631819946</v>
       </c>
       <c r="J34" t="n">
-        <v>54.37547631819947</v>
+        <v>134.085418193387</v>
       </c>
       <c r="K34" t="n">
-        <v>66.30548726106744</v>
+        <v>146.015429136255</v>
       </c>
       <c r="L34" t="n">
-        <v>137.3754090453653</v>
+        <v>217.0853509205528</v>
       </c>
       <c r="M34" t="n">
-        <v>222.9015764509454</v>
+        <v>302.6115183261329</v>
       </c>
       <c r="N34" t="n">
-        <v>463.0352764603614</v>
+        <v>391.2453265260323</v>
       </c>
       <c r="O34" t="n">
-        <v>529.5663475751076</v>
+        <v>609.2762894502952</v>
       </c>
       <c r="P34" t="n">
-        <v>686.884957527104</v>
+        <v>686.8849575271032</v>
       </c>
       <c r="Q34" t="n">
-        <v>778.5620966650561</v>
+        <v>778.5620966650553</v>
       </c>
       <c r="R34" t="n">
-        <v>768.4818807327279</v>
+        <v>768.4818807327272</v>
       </c>
       <c r="S34" t="n">
-        <v>702.5187753376016</v>
+        <v>702.518775337601</v>
       </c>
       <c r="T34" t="n">
-        <v>627.4523581019617</v>
+        <v>627.4523581019612</v>
       </c>
       <c r="U34" t="n">
-        <v>493.0993451906591</v>
+        <v>493.0993451906586</v>
       </c>
       <c r="V34" t="n">
-        <v>392.1840347664645</v>
+        <v>392.184034766464</v>
       </c>
       <c r="W34" t="n">
-        <v>257.7775871498695</v>
+        <v>257.7775871498691</v>
       </c>
       <c r="X34" t="n">
-        <v>183.9289344374222</v>
+        <v>183.9289344374219</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.5466312851175</v>
+        <v>117.5466312851172</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C35" t="n">
-        <v>982.9079302710267</v>
+        <v>982.9079302710271</v>
       </c>
       <c r="D35" t="n">
-        <v>817.249672754278</v>
+        <v>817.2496727542782</v>
       </c>
       <c r="E35" t="n">
-        <v>624.8103010954189</v>
+        <v>624.810301095419</v>
       </c>
       <c r="F35" t="n">
         <v>407.9509014312534</v>
@@ -6929,52 +6929,52 @@
         <v>183.9741503329245</v>
       </c>
       <c r="H35" t="n">
-        <v>42.28785904543408</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="I35" t="n">
-        <v>49.43827966315691</v>
+        <v>49.43827966315686</v>
       </c>
       <c r="J35" t="n">
-        <v>282.7123133603102</v>
+        <v>92.03528612542333</v>
       </c>
       <c r="K35" t="n">
-        <v>603.2628044634529</v>
+        <v>278.15374940916</v>
       </c>
       <c r="L35" t="n">
-        <v>886.1282940103843</v>
+        <v>561.0192389560914</v>
       </c>
       <c r="M35" t="n">
-        <v>1216.082947334262</v>
+        <v>1025.405920099376</v>
       </c>
       <c r="N35" t="n">
-        <v>1535.85943691362</v>
+        <v>1535.859436913621</v>
       </c>
       <c r="O35" t="n">
         <v>1791.686956866954</v>
       </c>
       <c r="P35" t="n">
-        <v>1973.091033200262</v>
+        <v>1973.091033200263</v>
       </c>
       <c r="Q35" t="n">
-        <v>2032.138538144642</v>
+        <v>2032.138538144643</v>
       </c>
       <c r="R35" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="S35" t="n">
         <v>2112.844850573234</v>
       </c>
       <c r="T35" t="n">
-        <v>2084.452067686142</v>
+        <v>2084.452067686143</v>
       </c>
       <c r="U35" t="n">
-        <v>2025.02426178387</v>
+        <v>2025.024261783871</v>
       </c>
       <c r="V35" t="n">
         <v>1887.721066117706</v>
       </c>
       <c r="W35" t="n">
-        <v>1728.198784110092</v>
+        <v>1728.198784110093</v>
       </c>
       <c r="X35" t="n">
         <v>1548.139651465494</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>665.1945997452015</v>
+        <v>802.3135983146485</v>
       </c>
       <c r="C36" t="n">
-        <v>492.4414846670186</v>
+        <v>629.5604832364656</v>
       </c>
       <c r="D36" t="n">
-        <v>344.8531780259625</v>
+        <v>481.9721765954096</v>
       </c>
       <c r="E36" t="n">
-        <v>187.2436490288172</v>
+        <v>324.3626475982643</v>
       </c>
       <c r="F36" t="n">
-        <v>42.28785904543408</v>
+        <v>179.4068576148812</v>
       </c>
       <c r="G36" t="n">
-        <v>42.28785904543408</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="H36" t="n">
-        <v>42.28785904543408</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="I36" t="n">
-        <v>42.28785904543408</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="J36" t="n">
-        <v>75.44038945753285</v>
+        <v>75.44038945753277</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7089576214452</v>
+        <v>258.7089576214451</v>
       </c>
       <c r="L36" t="n">
         <v>565.9857712270841</v>
@@ -7026,40 +7026,40 @@
         <v>977.3635134686119</v>
       </c>
       <c r="N36" t="n">
-        <v>1415.027932458028</v>
+        <v>1415.027932458029</v>
       </c>
       <c r="O36" t="n">
-        <v>1747.777352455536</v>
+        <v>1747.777352455537</v>
       </c>
       <c r="P36" t="n">
-        <v>1998.411556631915</v>
+        <v>1998.411556631916</v>
       </c>
       <c r="Q36" t="n">
-        <v>2114.392952271704</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="R36" t="n">
-        <v>2036.01323388365</v>
+        <v>2114.392952271705</v>
       </c>
       <c r="S36" t="n">
-        <v>2036.01323388365</v>
+        <v>2100.001936964858</v>
       </c>
       <c r="T36" t="n">
-        <v>1958.166360317473</v>
+        <v>1900.736815641449</v>
       </c>
       <c r="U36" t="n">
-        <v>1731.2582203786</v>
+        <v>1868.377218948047</v>
       </c>
       <c r="V36" t="n">
-        <v>1497.006976904201</v>
+        <v>1634.125975473648</v>
       </c>
       <c r="W36" t="n">
-        <v>1244.492485237534</v>
+        <v>1381.611483806981</v>
       </c>
       <c r="X36" t="n">
-        <v>1037.965586643111</v>
+        <v>1175.084585212559</v>
       </c>
       <c r="Y36" t="n">
-        <v>832.2371508667619</v>
+        <v>969.356149436209</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.68203170454396</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="C37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="D37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="E37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="F37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="G37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="H37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="I37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="J37" t="n">
-        <v>56.01765574377254</v>
+        <v>42.2878590454341</v>
       </c>
       <c r="K37" t="n">
-        <v>67.94766668664052</v>
+        <v>54.21786998830206</v>
       </c>
       <c r="L37" t="n">
-        <v>139.0175884709384</v>
+        <v>125.2877917725999</v>
       </c>
       <c r="M37" t="n">
-        <v>224.5437558765184</v>
+        <v>210.81395917818</v>
       </c>
       <c r="N37" t="n">
-        <v>313.1775640764179</v>
+        <v>299.4477673780794</v>
       </c>
       <c r="O37" t="n">
-        <v>379.708635191164</v>
+        <v>365.9788384928255</v>
       </c>
       <c r="P37" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="Q37" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="R37" t="n">
-        <v>413.4149787332327</v>
+        <v>413.4149787332331</v>
       </c>
       <c r="S37" t="n">
-        <v>387.4244633037938</v>
+        <v>387.4244633037941</v>
       </c>
       <c r="T37" t="n">
-        <v>352.3306360338414</v>
+        <v>352.3306360338416</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9502130882261</v>
+        <v>257.9502130882263</v>
       </c>
       <c r="V37" t="n">
-        <v>197.0074926297189</v>
+        <v>197.0074926297191</v>
       </c>
       <c r="W37" t="n">
-        <v>102.5736349788113</v>
+        <v>102.5736349788114</v>
       </c>
       <c r="X37" t="n">
-        <v>68.69757223205146</v>
+        <v>68.69757223205153</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.28785904543408</v>
+        <v>42.2878590454341</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1159.05140286287</v>
+        <v>1159.051402862871</v>
       </c>
       <c r="C38" t="n">
-        <v>982.9079302710264</v>
+        <v>982.9079302710267</v>
       </c>
       <c r="D38" t="n">
-        <v>817.2496727542775</v>
+        <v>817.249672754278</v>
       </c>
       <c r="E38" t="n">
-        <v>624.8103010954185</v>
+        <v>624.8103010954189</v>
       </c>
       <c r="F38" t="n">
-        <v>407.950901431253</v>
+        <v>407.9509014312534</v>
       </c>
       <c r="G38" t="n">
         <v>183.9741503329245</v>
@@ -7172,19 +7172,19 @@
         <v>49.43827966315691</v>
       </c>
       <c r="J38" t="n">
-        <v>282.7123133603102</v>
+        <v>92.03528612542337</v>
       </c>
       <c r="K38" t="n">
-        <v>603.2628044634533</v>
+        <v>278.15374940916</v>
       </c>
       <c r="L38" t="n">
-        <v>886.1282940103847</v>
+        <v>561.0192389560914</v>
       </c>
       <c r="M38" t="n">
-        <v>1216.082947334262</v>
+        <v>890.973892279969</v>
       </c>
       <c r="N38" t="n">
-        <v>1535.85943691362</v>
+        <v>1345.182409678733</v>
       </c>
       <c r="O38" t="n">
         <v>1791.686956866954</v>
@@ -7205,7 +7205,7 @@
         <v>2084.452067686143</v>
       </c>
       <c r="U38" t="n">
-        <v>2025.024261783869</v>
+        <v>2025.02426178387</v>
       </c>
       <c r="V38" t="n">
         <v>1887.721066117706</v>
@@ -7214,7 +7214,7 @@
         <v>1728.198784110092</v>
       </c>
       <c r="X38" t="n">
-        <v>1548.139651465493</v>
+        <v>1548.139651465494</v>
       </c>
       <c r="Y38" t="n">
         <v>1352.09519294204</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>572.8237340411455</v>
+        <v>989.0047393387913</v>
       </c>
       <c r="C39" t="n">
-        <v>400.0706189629627</v>
+        <v>816.2516242606084</v>
       </c>
       <c r="D39" t="n">
-        <v>400.0706189629627</v>
+        <v>668.6633176195523</v>
       </c>
       <c r="E39" t="n">
-        <v>242.4610899658174</v>
+        <v>511.0537886224071</v>
       </c>
       <c r="F39" t="n">
-        <v>97.50529998243422</v>
+        <v>366.0979986390239</v>
       </c>
       <c r="G39" t="n">
-        <v>42.28785904543409</v>
+        <v>228.9790000695768</v>
       </c>
       <c r="H39" t="n">
-        <v>42.28785904543409</v>
+        <v>120.0873680964849</v>
       </c>
       <c r="I39" t="n">
         <v>42.28785904543409</v>
       </c>
       <c r="J39" t="n">
-        <v>75.44038945753286</v>
+        <v>75.44038945753289</v>
       </c>
       <c r="K39" t="n">
         <v>258.7089576214452</v>
@@ -7269,7 +7269,7 @@
         <v>1747.777352455537</v>
       </c>
       <c r="P39" t="n">
-        <v>1998.411556631916</v>
+        <v>1998.411556631915</v>
       </c>
       <c r="Q39" t="n">
         <v>2114.392952271704</v>
@@ -7278,25 +7278,25 @@
         <v>2036.013233883651</v>
       </c>
       <c r="S39" t="n">
-        <v>1870.512072691355</v>
+        <v>2036.013233883651</v>
       </c>
       <c r="T39" t="n">
-        <v>1865.795494613418</v>
+        <v>2031.296655805713</v>
       </c>
       <c r="U39" t="n">
-        <v>1638.887354674544</v>
+        <v>1998.937059112311</v>
       </c>
       <c r="V39" t="n">
-        <v>1404.636111200145</v>
+        <v>1820.81711649779</v>
       </c>
       <c r="W39" t="n">
-        <v>1152.121619533478</v>
+        <v>1568.302624831123</v>
       </c>
       <c r="X39" t="n">
-        <v>945.5947209390555</v>
+        <v>1361.775726236701</v>
       </c>
       <c r="Y39" t="n">
-        <v>739.8662851627059</v>
+        <v>1156.047290460352</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.68203170454397</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="C40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="D40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="E40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="F40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="G40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="H40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="I40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="J40" t="n">
-        <v>56.01765574377254</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="K40" t="n">
-        <v>67.94766668664052</v>
+        <v>54.21786998830206</v>
       </c>
       <c r="L40" t="n">
-        <v>139.0175884709384</v>
+        <v>125.2877917725999</v>
       </c>
       <c r="M40" t="n">
-        <v>224.5437558765184</v>
+        <v>210.81395917818</v>
       </c>
       <c r="N40" t="n">
-        <v>313.1775640764179</v>
+        <v>299.4477673780794</v>
       </c>
       <c r="O40" t="n">
-        <v>379.708635191164</v>
+        <v>365.9788384928255</v>
       </c>
       <c r="P40" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="Q40" t="n">
-        <v>413.4149787332327</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="R40" t="n">
         <v>413.4149787332327</v>
@@ -7388,52 +7388,52 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C41" t="n">
-        <v>982.9079302710268</v>
+        <v>982.9079302710267</v>
       </c>
       <c r="D41" t="n">
-        <v>817.249672754278</v>
+        <v>817.2496727542778</v>
       </c>
       <c r="E41" t="n">
-        <v>624.8103010954189</v>
+        <v>624.8103010954185</v>
       </c>
       <c r="F41" t="n">
-        <v>407.9509014312534</v>
+        <v>407.950901431253</v>
       </c>
       <c r="G41" t="n">
         <v>183.9741503329245</v>
       </c>
       <c r="H41" t="n">
-        <v>42.2878590454341</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="I41" t="n">
-        <v>42.2878590454341</v>
+        <v>49.43827966315691</v>
       </c>
       <c r="J41" t="n">
-        <v>226.4673139448304</v>
+        <v>92.03528612542337</v>
       </c>
       <c r="K41" t="n">
-        <v>412.5857772285671</v>
+        <v>278.15374940916</v>
       </c>
       <c r="L41" t="n">
-        <v>695.4512667754984</v>
+        <v>561.0192389560914</v>
       </c>
       <c r="M41" t="n">
-        <v>1025.405920099376</v>
+        <v>890.973892279969</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.182409678734</v>
+        <v>1210.750381859327</v>
       </c>
       <c r="O41" t="n">
-        <v>1601.009929632068</v>
+        <v>1657.254929047547</v>
       </c>
       <c r="P41" t="n">
-        <v>1782.414005965376</v>
+        <v>1973.091033200263</v>
       </c>
       <c r="Q41" t="n">
-        <v>2032.138538144643</v>
+        <v>2032.138538144642</v>
       </c>
       <c r="R41" t="n">
-        <v>2114.392952271705</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="S41" t="n">
         <v>2112.844850573234</v>
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>665.1945997452015</v>
+        <v>816.7046136214944</v>
       </c>
       <c r="C42" t="n">
-        <v>492.4414846670186</v>
+        <v>643.9514985433116</v>
       </c>
       <c r="D42" t="n">
-        <v>344.8531780259625</v>
+        <v>496.3631919022554</v>
       </c>
       <c r="E42" t="n">
-        <v>187.2436490288172</v>
+        <v>433.2542795713562</v>
       </c>
       <c r="F42" t="n">
-        <v>42.2878590454341</v>
+        <v>288.2984895879731</v>
       </c>
       <c r="G42" t="n">
-        <v>42.2878590454341</v>
+        <v>151.179491018526</v>
       </c>
       <c r="H42" t="n">
-        <v>42.2878590454341</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="I42" t="n">
-        <v>42.2878590454341</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="J42" t="n">
-        <v>75.440389457533</v>
+        <v>75.4403894575328</v>
       </c>
       <c r="K42" t="n">
-        <v>258.7089576214454</v>
+        <v>258.7089576214451</v>
       </c>
       <c r="L42" t="n">
-        <v>565.9857712270846</v>
+        <v>565.9857712270841</v>
       </c>
       <c r="M42" t="n">
-        <v>977.3635134686123</v>
+        <v>977.3635134686118</v>
       </c>
       <c r="N42" t="n">
         <v>1415.027932458029</v>
@@ -7506,34 +7506,34 @@
         <v>1747.777352455537</v>
       </c>
       <c r="P42" t="n">
-        <v>1998.411556631916</v>
+        <v>1998.411556631915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2114.392952271705</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="R42" t="n">
-        <v>2114.392952271705</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="S42" t="n">
-        <v>1962.882938395411</v>
+        <v>2114.392952271704</v>
       </c>
       <c r="T42" t="n">
-        <v>1958.166360317473</v>
+        <v>2109.676374193767</v>
       </c>
       <c r="U42" t="n">
-        <v>1731.2582203786</v>
+        <v>1882.768234254893</v>
       </c>
       <c r="V42" t="n">
-        <v>1497.006976904201</v>
+        <v>1648.516990780494</v>
       </c>
       <c r="W42" t="n">
-        <v>1244.492485237534</v>
+        <v>1396.002499113827</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.965586643111</v>
+        <v>1189.475600519404</v>
       </c>
       <c r="Y42" t="n">
-        <v>832.2371508667619</v>
+        <v>983.7471647430549</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.2878590454341</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="C43" t="n">
-        <v>42.2878590454341</v>
+        <v>42.28785904543409</v>
       </c>
       <c r="D43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="E43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="F43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="G43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="H43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="J43" t="n">
-        <v>42.2878590454341</v>
+        <v>56.01765574377262</v>
       </c>
       <c r="K43" t="n">
-        <v>54.21786998830207</v>
+        <v>67.94766668664059</v>
       </c>
       <c r="L43" t="n">
-        <v>125.2877917725999</v>
+        <v>139.0175884709384</v>
       </c>
       <c r="M43" t="n">
-        <v>210.81395917818</v>
+        <v>224.5437558765185</v>
       </c>
       <c r="N43" t="n">
-        <v>299.4477673780794</v>
+        <v>313.1775640764179</v>
       </c>
       <c r="O43" t="n">
-        <v>365.9788384928255</v>
+        <v>379.708635191164</v>
       </c>
       <c r="P43" t="n">
-        <v>399.6851820348942</v>
+        <v>413.4149787332327</v>
       </c>
       <c r="Q43" t="n">
         <v>413.4149787332327</v>
@@ -7612,7 +7612,7 @@
         <v>68.69757223205147</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.2878590454341</v>
+        <v>42.28785904543409</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1159.051402862871</v>
       </c>
       <c r="C44" t="n">
-        <v>982.9079302710264</v>
+        <v>982.9079302710267</v>
       </c>
       <c r="D44" t="n">
-        <v>817.2496727542778</v>
+        <v>817.249672754278</v>
       </c>
       <c r="E44" t="n">
-        <v>624.8103010954187</v>
+        <v>624.8103010954189</v>
       </c>
       <c r="F44" t="n">
-        <v>407.9509014312532</v>
+        <v>407.9509014312534</v>
       </c>
       <c r="G44" t="n">
         <v>183.9741503329245</v>
@@ -7643,19 +7643,19 @@
         <v>42.28785904543409</v>
       </c>
       <c r="I44" t="n">
-        <v>49.43827966315686</v>
+        <v>49.43827966315691</v>
       </c>
       <c r="J44" t="n">
-        <v>92.03528612542333</v>
+        <v>226.4673139448295</v>
       </c>
       <c r="K44" t="n">
-        <v>278.15374940916</v>
+        <v>412.5857772285661</v>
       </c>
       <c r="L44" t="n">
-        <v>561.0192389560914</v>
+        <v>695.4512667754975</v>
       </c>
       <c r="M44" t="n">
-        <v>890.973892279969</v>
+        <v>1025.405920099375</v>
       </c>
       <c r="N44" t="n">
         <v>1345.182409678733</v>
@@ -7664,7 +7664,7 @@
         <v>1601.009929632067</v>
       </c>
       <c r="P44" t="n">
-        <v>1782.414005965376</v>
+        <v>1973.091033200263</v>
       </c>
       <c r="Q44" t="n">
         <v>2032.138538144642</v>
@@ -7676,7 +7676,7 @@
         <v>2112.844850573234</v>
       </c>
       <c r="T44" t="n">
-        <v>2084.452067686143</v>
+        <v>2084.452067686142</v>
       </c>
       <c r="U44" t="n">
         <v>2025.02426178387</v>
@@ -7691,7 +7691,7 @@
         <v>1548.139651465494</v>
       </c>
       <c r="Y44" t="n">
-        <v>1352.095192942041</v>
+        <v>1352.09519294204</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.2052302877405</v>
+        <v>816.7046136214944</v>
       </c>
       <c r="C45" t="n">
-        <v>738.4521152095576</v>
+        <v>643.9514985433116</v>
       </c>
       <c r="D45" t="n">
-        <v>590.8638085685014</v>
+        <v>496.3631919022554</v>
       </c>
       <c r="E45" t="n">
-        <v>433.2542795713562</v>
+        <v>338.7536629051101</v>
       </c>
       <c r="F45" t="n">
-        <v>288.2984895879731</v>
+        <v>193.797872921727</v>
       </c>
       <c r="G45" t="n">
         <v>151.179491018526</v>
@@ -7725,16 +7725,16 @@
         <v>42.28785904543409</v>
       </c>
       <c r="J45" t="n">
-        <v>75.44038945753283</v>
+        <v>75.440389457533</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7089576214451</v>
+        <v>258.7089576214453</v>
       </c>
       <c r="L45" t="n">
-        <v>565.9857712270841</v>
+        <v>565.9857712270843</v>
       </c>
       <c r="M45" t="n">
-        <v>977.3635134686119</v>
+        <v>977.363513468612</v>
       </c>
       <c r="N45" t="n">
         <v>1415.027932458029</v>
@@ -7758,19 +7758,19 @@
         <v>2109.676374193767</v>
       </c>
       <c r="U45" t="n">
-        <v>1977.268850921139</v>
+        <v>1882.768234254893</v>
       </c>
       <c r="V45" t="n">
-        <v>1743.017607446739</v>
+        <v>1648.516990780494</v>
       </c>
       <c r="W45" t="n">
-        <v>1490.503115780073</v>
+        <v>1396.002499113827</v>
       </c>
       <c r="X45" t="n">
-        <v>1283.97621718565</v>
+        <v>1189.475600519404</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.247781409301</v>
+        <v>983.7471647430549</v>
       </c>
     </row>
     <row r="46">
@@ -7810,43 +7810,43 @@
         <v>54.21786998830206</v>
       </c>
       <c r="L46" t="n">
-        <v>139.0175884709388</v>
+        <v>125.2877917725999</v>
       </c>
       <c r="M46" t="n">
-        <v>224.5437558765188</v>
+        <v>210.81395917818</v>
       </c>
       <c r="N46" t="n">
-        <v>313.1775640764183</v>
+        <v>299.4477673780794</v>
       </c>
       <c r="O46" t="n">
-        <v>379.7086351911644</v>
+        <v>365.9788384928255</v>
       </c>
       <c r="P46" t="n">
-        <v>413.4149787332331</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="Q46" t="n">
-        <v>413.4149787332331</v>
+        <v>399.6851820348942</v>
       </c>
       <c r="R46" t="n">
-        <v>413.4149787332331</v>
+        <v>413.4149787332327</v>
       </c>
       <c r="S46" t="n">
-        <v>387.4244633037941</v>
+        <v>387.4244633037938</v>
       </c>
       <c r="T46" t="n">
-        <v>352.3306360338416</v>
+        <v>352.3306360338414</v>
       </c>
       <c r="U46" t="n">
-        <v>257.9502130882263</v>
+        <v>257.9502130882261</v>
       </c>
       <c r="V46" t="n">
-        <v>197.0074926297191</v>
+        <v>197.0074926297189</v>
       </c>
       <c r="W46" t="n">
-        <v>102.5736349788114</v>
+        <v>102.5736349788113</v>
       </c>
       <c r="X46" t="n">
-        <v>68.69757223205153</v>
+        <v>68.69757223205147</v>
       </c>
       <c r="Y46" t="n">
         <v>42.28785904543409</v>
@@ -8453,25 +8453,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>248.7980580636387</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>269.7536187999064</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>264.4689416007598</v>
+        <v>262.8575733500862</v>
       </c>
       <c r="N8" t="n">
         <v>263.559101210845</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>264.2271203403134</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>265.3335350655566</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8532,19 +8532,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>174.2767672041689</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>165.8925254848475</v>
       </c>
       <c r="M9" t="n">
         <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>158.8601744807202</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>178.9127025375022</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
         <v>170.5064114331408</v>
@@ -8772,22 +8772,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>239.3692960060866</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.2856964442812</v>
+        <v>479.2856964442811</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>380.4650738269637</v>
       </c>
       <c r="P12" t="n">
-        <v>78.035416581112</v>
+        <v>78.03541658111203</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,28 +9003,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.64727229735976</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>89.92408067094814</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>288.4761239124735</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.2856964442812</v>
+        <v>479.2856964442811</v>
       </c>
       <c r="O15" t="n">
-        <v>160.7866154792066</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>101.327454356607</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,28 +9240,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.64727229735976</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>89.92408067094814</v>
       </c>
       <c r="L18" t="n">
-        <v>385.6739591155975</v>
+        <v>321.9635283691389</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>415.9256957803557</v>
+        <v>479.2856964442811</v>
       </c>
       <c r="O18" t="n">
-        <v>73.50628679779057</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.64727229735976</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>89.92408067094814</v>
       </c>
       <c r="L21" t="n">
-        <v>385.6739591155975</v>
+        <v>321.9635283691394</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>79.81517053034754</v>
+        <v>479.2856964442813</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9498,7 +9498,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9720,22 +9720,22 @@
         <v>89.92408067094814</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>321.9635283691394</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.2856964442812</v>
+        <v>479.2856964442813</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>267.4908486390761</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>101.327454356607</v>
+        <v>101.3274543566071</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10674,7 +10674,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172948</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452826</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540251</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.505169892424</v>
       </c>
       <c r="C11" t="n">
-        <v>244.7738555799716</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9067956563164</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>285.0826233815698</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1288013013915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.6612460886615</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.16917062543711</v>
+        <v>63.16917062543706</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92443839553184</v>
+        <v>71.92443839553178</v>
       </c>
       <c r="T11" t="n">
-        <v>98.5006727722664</v>
+        <v>98.50067277226634</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.2253455572959</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3219814235484</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3188769015836</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>43.22432643477705</v>
+        <v>24.23332159006205</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.4758316522648</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.120915016545958</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5.120915016544473</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>261.505169892424</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>144.9005524961485</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.3934926556273</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9067956563164</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.0826233815698</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.6612460886615</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92443839553178</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>54.00256085712487</v>
+        <v>98.50067277226634</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2253455572959</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>206.3219814235483</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3188769015835</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4758316522648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.120915016544924</v>
+        <v>5.120915016544501</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-9.556799795973347e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>60911.72833168053</v>
       </c>
       <c r="C2" t="n">
-        <v>60911.72833168054</v>
+        <v>60911.72833168053</v>
       </c>
       <c r="D2" t="n">
-        <v>61043.95564612021</v>
+        <v>61043.95564612023</v>
       </c>
       <c r="E2" t="n">
         <v>52324.36848303711</v>
@@ -26326,19 +26326,19 @@
         <v>52324.36848303709</v>
       </c>
       <c r="G2" t="n">
-        <v>61043.95564612021</v>
+        <v>61043.95564612023</v>
       </c>
       <c r="H2" t="n">
         <v>61043.95564612022</v>
       </c>
       <c r="I2" t="n">
-        <v>61043.95564612023</v>
+        <v>61043.95564612021</v>
       </c>
       <c r="J2" t="n">
-        <v>61043.95564612025</v>
+        <v>61043.95564612034</v>
       </c>
       <c r="K2" t="n">
-        <v>61043.9556461203</v>
+        <v>61043.95564612031</v>
       </c>
       <c r="L2" t="n">
         <v>61043.95564612024</v>
@@ -26350,10 +26350,10 @@
         <v>61043.95564612022</v>
       </c>
       <c r="O2" t="n">
-        <v>61043.95564612021</v>
+        <v>61043.95564612022</v>
       </c>
       <c r="P2" t="n">
-        <v>61043.95564612021</v>
+        <v>61043.95564612022</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81695.27251532886</v>
+        <v>81695.27251532883</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110109.3838226773</v>
+        <v>110109.3838226774</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89949.75775285088</v>
+        <v>89949.7577528509</v>
       </c>
       <c r="M3" t="n">
-        <v>89443.29579105628</v>
+        <v>89443.2957910563</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>32474.39724473823</v>
+        <v>32474.39724473832</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>390180.8383613949</v>
       </c>
       <c r="D4" t="n">
-        <v>383511.7535806273</v>
+        <v>383511.7535806274</v>
       </c>
       <c r="E4" t="n">
-        <v>233454.3231975456</v>
+        <v>233454.3231975457</v>
       </c>
       <c r="F4" t="n">
         <v>233454.3231975457</v>
@@ -26433,19 +26433,19 @@
         <v>299551.6789532357</v>
       </c>
       <c r="H4" t="n">
+        <v>299551.6789532356</v>
+      </c>
+      <c r="I4" t="n">
         <v>299551.6789532357</v>
-      </c>
-      <c r="I4" t="n">
-        <v>299551.6789532356</v>
       </c>
       <c r="J4" t="n">
         <v>295003.1184993646</v>
       </c>
       <c r="K4" t="n">
-        <v>295003.1184993646</v>
+        <v>295003.1184993647</v>
       </c>
       <c r="L4" t="n">
-        <v>294796.8040555407</v>
+        <v>294796.8040555408</v>
       </c>
       <c r="M4" t="n">
         <v>294074.4037443043</v>
@@ -26476,7 +26476,7 @@
         <v>36052.38694361346</v>
       </c>
       <c r="E5" t="n">
-        <v>38774.97418276353</v>
+        <v>38774.97418276354</v>
       </c>
       <c r="F5" t="n">
         <v>38774.97418276354</v>
@@ -26491,25 +26491,25 @@
         <v>47360.02401412751</v>
       </c>
       <c r="J5" t="n">
+        <v>58539.03099407724</v>
+      </c>
+      <c r="K5" t="n">
         <v>58539.03099407723</v>
-      </c>
-      <c r="K5" t="n">
-        <v>58539.03099407724</v>
       </c>
       <c r="L5" t="n">
         <v>56981.67694975533</v>
       </c>
       <c r="M5" t="n">
-        <v>51121.93893162075</v>
+        <v>51121.93893162076</v>
       </c>
       <c r="N5" t="n">
         <v>51121.93893162076</v>
       </c>
       <c r="O5" t="n">
-        <v>51121.93893162077</v>
+        <v>51121.93893162076</v>
       </c>
       <c r="P5" t="n">
-        <v>51121.93893162075</v>
+        <v>51121.93893162076</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362896.7100297144</v>
+        <v>-362901.1176068624</v>
       </c>
       <c r="C6" t="n">
-        <v>-362896.7100297144</v>
+        <v>-362901.1176068624</v>
       </c>
       <c r="D6" t="n">
-        <v>-370908.5330408615</v>
+        <v>-370908.5330408616</v>
       </c>
       <c r="E6" t="n">
-        <v>-534887.1816279303</v>
+        <v>-535177.8345333665</v>
       </c>
       <c r="F6" t="n">
-        <v>-219904.9288972722</v>
+        <v>-220195.5818027083</v>
       </c>
       <c r="G6" t="n">
         <v>-367563.0198365718</v>
       </c>
       <c r="H6" t="n">
+        <v>-285867.7473212429</v>
+      </c>
+      <c r="I6" t="n">
         <v>-285867.747321243</v>
       </c>
-      <c r="I6" t="n">
-        <v>-285867.7473212429</v>
-      </c>
       <c r="J6" t="n">
-        <v>-402607.5776699989</v>
+        <v>-402607.577669999</v>
       </c>
       <c r="K6" t="n">
-        <v>-292498.1938473217</v>
+        <v>-292498.1938473216</v>
       </c>
       <c r="L6" t="n">
-        <v>-380684.2831120267</v>
+        <v>-380684.2831120268</v>
       </c>
       <c r="M6" t="n">
         <v>-373595.6828208611</v>
@@ -26707,13 +26707,13 @@
         <v>224.3303307431321</v>
       </c>
       <c r="J2" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="K2" t="n">
         <v>142.712087200084</v>
       </c>
       <c r="L2" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="M2" t="n">
         <v>192.603057813017</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="F3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="G3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="H3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="I3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="J3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="K3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="L3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="M3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="N3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="O3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="P3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
     </row>
     <row r="4">
@@ -26796,13 +26796,13 @@
         <v>39.88136420416884</v>
       </c>
       <c r="E4" t="n">
-        <v>422.8548988334674</v>
+        <v>422.8548988334673</v>
       </c>
       <c r="F4" t="n">
-        <v>422.8548988334674</v>
+        <v>422.8548988334673</v>
       </c>
       <c r="G4" t="n">
-        <v>422.8548988334674</v>
+        <v>422.8548988334673</v>
       </c>
       <c r="H4" t="n">
         <v>422.8548988334674</v>
@@ -26814,19 +26814,19 @@
         <v>719.5748181816622</v>
       </c>
       <c r="K4" t="n">
-        <v>719.5748181816622</v>
+        <v>719.5748181816621</v>
       </c>
       <c r="L4" t="n">
-        <v>679.6934539774934</v>
+        <v>679.6934539774933</v>
       </c>
       <c r="M4" t="n">
-        <v>528.598238067926</v>
+        <v>528.5982380679262</v>
       </c>
       <c r="N4" t="n">
         <v>528.5982380679261</v>
       </c>
       <c r="O4" t="n">
-        <v>528.5982380679262</v>
+        <v>528.5982380679261</v>
       </c>
       <c r="P4" t="n">
         <v>528.5982380679261</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>102.1190906441611</v>
+        <v>102.119090644161</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.59299655592278</v>
+        <v>40.59299655592289</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>112.4371971910636</v>
       </c>
       <c r="M2" t="n">
-        <v>39.57286406603052</v>
+        <v>39.57286406603043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592278</v>
+        <v>40.59299655592289</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.0375958627672</v>
+        <v>128.0375958627671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.8783187197311</v>
+        <v>231.8783187197314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102.1190906441611</v>
+        <v>102.119090644161</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.59299655592278</v>
+        <v>40.59299655592289</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>343.8350457872262</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>316.7233685504295</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>370.7984361831897</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>101.9694584967082</v>
       </c>
       <c r="S8" t="n">
-        <v>165.9835875193704</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>211.5963993723756</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27919,7 +27919,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>374.3674721791381</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>110.9849179836137</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>108.3787264925174</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -27950,7 +27950,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>46.62217926130283</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>54.81361555692238</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>158.5011677040998</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>192.0273668354863</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>164.5802654043094</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.7897872144172</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28017,25 +28017,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>126.6215283000006</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>106.2776572056356</v>
       </c>
       <c r="G10" t="n">
-        <v>132.7620833390762</v>
+        <v>128.0082247259392</v>
       </c>
       <c r="H10" t="n">
         <v>121.752707804748</v>
       </c>
       <c r="I10" t="n">
-        <v>113.8771825932348</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>48.9574807236101</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28169,70 +28169,70 @@
         <v>122.211240098971</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="D12" t="n">
         <v>122.211240098971</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>37.30108316700563</v>
+      </c>
+      <c r="U12" t="n">
         <v>122.211240098971</v>
       </c>
-      <c r="F12" t="n">
+      <c r="V12" t="n">
         <v>122.211240098971</v>
-      </c>
-      <c r="G12" t="n">
-        <v>122.211240098971</v>
-      </c>
-      <c r="H12" t="n">
-        <v>107.8027156533609</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>51.70960761261574</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>122.211240098971</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="Y12" t="n">
         <v>122.211240098971</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.32492650741318</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>96.89933375104621</v>
+      </c>
+      <c r="F15" t="n">
         <v>122.211240098971</v>
-      </c>
-      <c r="D15" t="n">
-        <v>122.211240098971</v>
-      </c>
-      <c r="E15" t="n">
-        <v>122.211240098971</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>122.211240098971</v>
@@ -28424,7 +28424,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.02151396054032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.59592120417298</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>122.211240098971</v>
@@ -28460,13 +28460,13 @@
         <v>122.211240098971</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>122.211240098971</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28646,13 +28646,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>112.1981927828497</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>135.7478085837526</v>
@@ -28661,7 +28661,7 @@
         <v>107.8027156533609</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>77.02151396054032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T18" t="n">
         <v>197.2724701101754</v>
@@ -28700,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>224.3303307431321</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>126.1293340895338</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>163.0096075199914</v>
       </c>
       <c r="S19" t="n">
-        <v>21.41357583904531</v>
+        <v>218.3336680881615</v>
       </c>
       <c r="T19" t="n">
         <v>224.3303307431321</v>
@@ -28788,7 +28788,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>21.82858161865229</v>
       </c>
     </row>
     <row r="20">
@@ -28886,13 +28886,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>112.1981927828495</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7478085837526</v>
+        <v>20.38749316806019</v>
       </c>
       <c r="H21" t="n">
         <v>107.8027156533609</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.59592120417298</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.8461495803725</v>
@@ -28934,10 +28934,10 @@
         <v>197.2724701101754</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.3303307431321</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>224.3303307431321</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>163.0096075199914</v>
       </c>
       <c r="S22" t="n">
-        <v>21.41357583904531</v>
+        <v>218.3336680881615</v>
       </c>
       <c r="T22" t="n">
         <v>224.3303307431321</v>
@@ -29019,7 +29019,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="W22" t="n">
-        <v>224.3303307431321</v>
+        <v>27.41023849401597</v>
       </c>
       <c r="X22" t="n">
         <v>224.3303307431321</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>107.8027156533609</v>
@@ -29174,7 +29174,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="V24" t="n">
-        <v>31.37409412326653</v>
+        <v>167.1219027070193</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>159.5812725211499</v>
       </c>
       <c r="I25" t="n">
-        <v>146.8151309430752</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>72.51510094376681</v>
@@ -29244,7 +29244,7 @@
         <v>163.0096075199914</v>
       </c>
       <c r="S25" t="n">
-        <v>218.3336680881615</v>
+        <v>168.2287067821206</v>
       </c>
       <c r="T25" t="n">
         <v>224.3303307431321</v>
@@ -29262,7 +29262,7 @@
         <v>224.3303307431321</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.82858161865207</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="C26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="D26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="E26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="F26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="G26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="H26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="I26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="J26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="K26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="L26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.7120872000842</v>
       </c>
       <c r="M26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="N26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="O26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="P26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="R26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="S26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="T26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="U26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="V26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="W26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="X26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.8027156533609</v>
@@ -29402,10 +29402,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>141.3381276599482</v>
+        <v>134.3738490436168</v>
       </c>
       <c r="T27" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="C28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="D28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="E28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="F28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="G28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="H28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="J28" t="n">
-        <v>142.7120872000839</v>
+        <v>72.51510094376681</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="M28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.7120872000839</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>142.7120872000839</v>
+        <v>87.16286827110322</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.39290491535752</v>
+        <v>60.42702290057034</v>
       </c>
       <c r="R28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="T28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="U28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="V28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="W28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="X28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.7120872000839</v>
+        <v>142.712087200084</v>
       </c>
     </row>
     <row r="29">
@@ -29597,19 +29597,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>98.8900702532612</v>
+        <v>56.77792783944396</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.8027156533609</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.02151396054032</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29691,10 +29691,10 @@
         <v>142.712087200084</v>
       </c>
       <c r="J31" t="n">
-        <v>72.51510094376681</v>
+        <v>142.712087200084</v>
       </c>
       <c r="K31" t="n">
-        <v>142.712087200084</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>142.712087200084</v>
@@ -29703,16 +29703,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>87.16286827110315</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>142.712087200084</v>
       </c>
       <c r="P31" t="n">
         <v>142.712087200084</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.42702290057034</v>
+        <v>77.39290491535637</v>
       </c>
       <c r="R31" t="n">
         <v>142.712087200084</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="C32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="D32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="E32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="F32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="G32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="H32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="I32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="J32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="K32" t="n">
-        <v>153.0301937469865</v>
+        <v>98.79574273482996</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="M32" t="n">
-        <v>55.28334000584874</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="N32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="O32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="P32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.0301937469865</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.0301937469865</v>
+        <v>109.5177910180045</v>
       </c>
       <c r="S32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="T32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="U32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="V32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="W32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="X32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Y32" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29876,13 +29876,13 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S33" t="n">
-        <v>153.0301937469865</v>
+        <v>53.42409990887295</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>53.42409990887251</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="C34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29919,16 +29919,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="H34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="I34" t="n">
         <v>146.8151309430752</v>
       </c>
       <c r="J34" t="n">
-        <v>72.51510094376681</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>153.0301937469865</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="P34" t="n">
-        <v>124.8608751615432</v>
+        <v>44.34578235832262</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="R34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="T34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="W34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="X34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.0301937469865</v>
+        <v>153.0301937469866</v>
       </c>
     </row>
     <row r="35">
@@ -30007,19 +30007,19 @@
         <v>192.603057813017</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>135.7899270903099</v>
+      </c>
+      <c r="N35" t="n">
         <v>192.603057813017</v>
-      </c>
-      <c r="K35" t="n">
-        <v>135.789927090309</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.8027156533609</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.59592120417298</v>
       </c>
       <c r="S36" t="n">
-        <v>163.8461495803725</v>
+        <v>149.5990444265946</v>
       </c>
       <c r="T36" t="n">
-        <v>120.2040652796602</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>192.603057813017</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>168.6856681223423</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -30189,7 +30189,7 @@
         <v>60.42702290057034</v>
       </c>
       <c r="R37" t="n">
-        <v>163.0096075199914</v>
+        <v>176.878089033465</v>
       </c>
       <c r="S37" t="n">
         <v>192.603057813017</v>
@@ -30244,22 +30244,22 @@
         <v>192.603057813017</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>135.7899270903096</v>
+      </c>
+      <c r="O38" t="n">
         <v>192.603057813017</v>
-      </c>
-      <c r="K38" t="n">
-        <v>135.7899270903095</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>81.08254205612246</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>77.02151396054032</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,16 +30350,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T39" t="n">
         <v>192.603057813017</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>55.56998785127931</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>192.603057813017</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>168.6856681223423</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30426,7 +30426,7 @@
         <v>60.42702290057034</v>
       </c>
       <c r="R40" t="n">
-        <v>163.0096075199914</v>
+        <v>176.8780890334646</v>
       </c>
       <c r="S40" t="n">
         <v>192.603057813017</v>
@@ -30478,10 +30478,10 @@
         <v>192.603057813017</v>
       </c>
       <c r="I41" t="n">
-        <v>185.3804107244081</v>
+        <v>192.603057813017</v>
       </c>
       <c r="J41" t="n">
-        <v>143.012574178919</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30496,13 +30496,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.7899270903096</v>
       </c>
       <c r="Q41" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>192.603057813017</v>
@@ -30545,16 +30545,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>93.55561049958355</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7478085837526</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8027156533609</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>77.02151396054032</v>
@@ -30587,7 +30587,7 @@
         <v>77.59592120417298</v>
       </c>
       <c r="S42" t="n">
-        <v>13.85123584284176</v>
+        <v>163.8461495803725</v>
       </c>
       <c r="T42" t="n">
         <v>192.603057813017</v>
@@ -30621,7 +30621,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>162.8740480279926</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.29550441404355</v>
+        <v>60.42702290057034</v>
       </c>
       <c r="R43" t="n">
         <v>163.0096075199914</v>
@@ -30718,7 +30718,7 @@
         <v>192.603057813017</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>135.7899270903092</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30730,16 +30730,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>135.7899270903096</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>192.603057813017</v>
       </c>
       <c r="Q44" t="n">
-        <v>192.603057813017</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>192.603057813017</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.55561049958362</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>192.603057813017</v>
       </c>
       <c r="U45" t="n">
-        <v>93.55561049958314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>13.8684815134736</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>60.42702290057034</v>
       </c>
       <c r="R46" t="n">
-        <v>163.0096075199914</v>
+        <v>176.8780890334646</v>
       </c>
       <c r="S46" t="n">
         <v>192.603057813017</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5147240034684105</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H11" t="n">
-        <v>5.27141720052086</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I11" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J11" t="n">
-        <v>43.68655638937705</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K11" t="n">
-        <v>65.47482345619487</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L11" t="n">
-        <v>81.22730817734126</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M11" t="n">
-        <v>90.3810311740226</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N11" t="n">
-        <v>91.84349074887723</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O11" t="n">
-        <v>86.72520393938821</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P11" t="n">
-        <v>74.01795510376182</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.58440172954935</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R11" t="n">
-        <v>32.33303168287257</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S11" t="n">
-        <v>11.72927322903642</v>
+        <v>11.72927322903641</v>
       </c>
       <c r="T11" t="n">
-        <v>2.253204325182968</v>
+        <v>2.253204325182967</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04117792027747283</v>
+        <v>0.04117792027747282</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2754016212897257</v>
+        <v>0.2754016212897256</v>
       </c>
       <c r="H12" t="n">
-        <v>2.659799868771825</v>
+        <v>2.659799868771824</v>
       </c>
       <c r="I12" t="n">
-        <v>9.482029504931347</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J12" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K12" t="n">
-        <v>44.47132232905189</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L12" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M12" t="n">
-        <v>69.78048974520811</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N12" t="n">
-        <v>71.62737167043616</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O12" t="n">
-        <v>65.52505153554276</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P12" t="n">
-        <v>52.58963064785999</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.15477537726394</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R12" t="n">
-        <v>17.09905855691824</v>
+        <v>17.09905855691823</v>
       </c>
       <c r="S12" t="n">
-        <v>5.115464325271875</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T12" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01811852771642933</v>
+        <v>0.01811852771642932</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2308874679492523</v>
+        <v>0.2308874679492522</v>
       </c>
       <c r="H13" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I13" t="n">
-        <v>6.943415854328427</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J13" t="n">
-        <v>16.32374398401214</v>
+        <v>16.32374398401213</v>
       </c>
       <c r="K13" t="n">
-        <v>26.8249258217404</v>
+        <v>26.82492582174039</v>
       </c>
       <c r="L13" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M13" t="n">
-        <v>36.19266008953598</v>
+        <v>36.19266008953596</v>
       </c>
       <c r="N13" t="n">
-        <v>35.3320795271797</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O13" t="n">
-        <v>32.63489410613615</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P13" t="n">
-        <v>27.92478975997138</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.33367697527785</v>
+        <v>19.33367697527784</v>
       </c>
       <c r="R13" t="n">
         <v>10.38154014979092</v>
       </c>
       <c r="S13" t="n">
-        <v>4.02373887326106</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9865191812377142</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H14" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I14" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J14" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K14" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L14" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M14" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N14" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O14" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P14" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R14" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S14" t="n">
         <v>11.72927322903641</v>
@@ -32072,40 +32072,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I15" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J15" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K15" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L15" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M15" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N15" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O15" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P15" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R15" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S15" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T15" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U15" t="n">
         <v>0.01811852771642932</v>
@@ -32148,10 +32148,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H16" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I16" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J16" t="n">
         <v>16.32374398401213</v>
@@ -32160,19 +32160,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L16" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M16" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N16" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O16" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P16" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q16" t="n">
         <v>19.33367697527784</v>
@@ -32181,13 +32181,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S16" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T16" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H17" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I17" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J17" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K17" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L17" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M17" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N17" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O17" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P17" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R17" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S17" t="n">
         <v>11.72927322903641</v>
@@ -32309,40 +32309,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I18" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J18" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K18" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L18" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M18" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N18" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O18" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P18" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R18" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S18" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T18" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U18" t="n">
         <v>0.01811852771642932</v>
@@ -32385,10 +32385,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H19" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I19" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J19" t="n">
         <v>16.32374398401213</v>
@@ -32397,19 +32397,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L19" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M19" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N19" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O19" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P19" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q19" t="n">
         <v>19.33367697527784</v>
@@ -32418,13 +32418,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S19" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T19" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H20" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I20" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J20" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K20" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L20" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M20" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N20" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O20" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P20" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R20" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S20" t="n">
         <v>11.72927322903641</v>
@@ -32546,40 +32546,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I21" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J21" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K21" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L21" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M21" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N21" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O21" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P21" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R21" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S21" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T21" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U21" t="n">
         <v>0.01811852771642932</v>
@@ -32622,10 +32622,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H22" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I22" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J22" t="n">
         <v>16.32374398401213</v>
@@ -32634,19 +32634,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L22" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M22" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N22" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O22" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P22" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q22" t="n">
         <v>19.33367697527784</v>
@@ -32655,13 +32655,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S22" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T22" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H23" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I23" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J23" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K23" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L23" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M23" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N23" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O23" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P23" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R23" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S23" t="n">
         <v>11.72927322903641</v>
@@ -32783,40 +32783,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I24" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J24" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K24" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L24" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M24" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N24" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O24" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P24" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R24" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S24" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T24" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U24" t="n">
         <v>0.01811852771642932</v>
@@ -32859,10 +32859,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H25" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I25" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J25" t="n">
         <v>16.32374398401213</v>
@@ -32871,19 +32871,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L25" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M25" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N25" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O25" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P25" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q25" t="n">
         <v>19.33367697527784</v>
@@ -32892,13 +32892,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S25" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T25" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H26" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I26" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J26" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K26" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L26" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M26" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N26" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O26" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P26" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R26" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S26" t="n">
         <v>11.72927322903641</v>
@@ -33020,40 +33020,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I27" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J27" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K27" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L27" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M27" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N27" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O27" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P27" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R27" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S27" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T27" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U27" t="n">
         <v>0.01811852771642932</v>
@@ -33096,10 +33096,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H28" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I28" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J28" t="n">
         <v>16.32374398401213</v>
@@ -33108,19 +33108,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L28" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M28" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N28" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O28" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P28" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q28" t="n">
         <v>19.33367697527784</v>
@@ -33129,13 +33129,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S28" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T28" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H29" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I29" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J29" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K29" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L29" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M29" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N29" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O29" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P29" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R29" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S29" t="n">
         <v>11.72927322903641</v>
@@ -33257,40 +33257,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I30" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J30" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K30" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L30" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M30" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N30" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O30" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P30" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R30" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S30" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T30" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U30" t="n">
         <v>0.01811852771642932</v>
@@ -33333,10 +33333,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H31" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I31" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J31" t="n">
         <v>16.32374398401213</v>
@@ -33345,19 +33345,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L31" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M31" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N31" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O31" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P31" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q31" t="n">
         <v>19.33367697527784</v>
@@ -33366,13 +33366,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S31" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T31" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H32" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I32" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J32" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K32" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L32" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M32" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N32" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O32" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P32" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R32" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S32" t="n">
         <v>11.72927322903641</v>
@@ -33494,40 +33494,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I33" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J33" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K33" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L33" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M33" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N33" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O33" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P33" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R33" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S33" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T33" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U33" t="n">
         <v>0.01811852771642932</v>
@@ -33570,10 +33570,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H34" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I34" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J34" t="n">
         <v>16.32374398401213</v>
@@ -33582,19 +33582,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L34" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M34" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N34" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O34" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P34" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q34" t="n">
         <v>19.33367697527784</v>
@@ -33603,13 +33603,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S34" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T34" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H35" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I35" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J35" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K35" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L35" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M35" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N35" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O35" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P35" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R35" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S35" t="n">
         <v>11.72927322903641</v>
@@ -33731,40 +33731,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I36" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J36" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K36" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L36" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M36" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N36" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O36" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P36" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R36" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S36" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T36" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U36" t="n">
         <v>0.01811852771642932</v>
@@ -33807,10 +33807,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H37" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I37" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J37" t="n">
         <v>16.32374398401213</v>
@@ -33819,19 +33819,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L37" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M37" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N37" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O37" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P37" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q37" t="n">
         <v>19.33367697527784</v>
@@ -33840,13 +33840,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S37" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T37" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H38" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I38" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J38" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K38" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L38" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M38" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N38" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O38" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P38" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R38" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S38" t="n">
         <v>11.72927322903641</v>
@@ -33968,40 +33968,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I39" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J39" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K39" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L39" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M39" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N39" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O39" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P39" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R39" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S39" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T39" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U39" t="n">
         <v>0.01811852771642932</v>
@@ -34044,10 +34044,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H40" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I40" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J40" t="n">
         <v>16.32374398401213</v>
@@ -34056,19 +34056,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L40" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M40" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N40" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O40" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P40" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q40" t="n">
         <v>19.33367697527784</v>
@@ -34077,13 +34077,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S40" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T40" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H41" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I41" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J41" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K41" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L41" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M41" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N41" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O41" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P41" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R41" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S41" t="n">
         <v>11.72927322903641</v>
@@ -34205,40 +34205,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I42" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J42" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K42" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L42" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M42" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N42" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O42" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P42" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R42" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S42" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T42" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U42" t="n">
         <v>0.01811852771642932</v>
@@ -34281,10 +34281,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H43" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I43" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J43" t="n">
         <v>16.32374398401213</v>
@@ -34293,19 +34293,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L43" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M43" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N43" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O43" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P43" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q43" t="n">
         <v>19.33367697527784</v>
@@ -34314,13 +34314,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S43" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T43" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5147240034684104</v>
+        <v>0.5147240034684103</v>
       </c>
       <c r="H44" t="n">
-        <v>5.271417200520859</v>
+        <v>5.271417200520858</v>
       </c>
       <c r="I44" t="n">
         <v>19.84389714371591</v>
       </c>
       <c r="J44" t="n">
-        <v>43.68655638937703</v>
+        <v>43.68655638937702</v>
       </c>
       <c r="K44" t="n">
-        <v>65.47482345619485</v>
+        <v>65.47482345619484</v>
       </c>
       <c r="L44" t="n">
-        <v>81.22730817734124</v>
+        <v>81.22730817734121</v>
       </c>
       <c r="M44" t="n">
-        <v>90.38103117402258</v>
+        <v>90.38103117402255</v>
       </c>
       <c r="N44" t="n">
-        <v>91.8434907488772</v>
+        <v>91.84349074887719</v>
       </c>
       <c r="O44" t="n">
-        <v>86.72520393938819</v>
+        <v>86.72520393938818</v>
       </c>
       <c r="P44" t="n">
-        <v>74.01795510376181</v>
+        <v>74.01795510376179</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.58440172954934</v>
+        <v>55.58440172954933</v>
       </c>
       <c r="R44" t="n">
-        <v>32.33303168287256</v>
+        <v>32.33303168287255</v>
       </c>
       <c r="S44" t="n">
         <v>11.72927322903641</v>
@@ -34442,40 +34442,40 @@
         <v>2.659799868771824</v>
       </c>
       <c r="I45" t="n">
-        <v>9.482029504931344</v>
+        <v>9.482029504931342</v>
       </c>
       <c r="J45" t="n">
-        <v>26.01941370264027</v>
+        <v>26.01941370264026</v>
       </c>
       <c r="K45" t="n">
-        <v>44.47132232905188</v>
+        <v>44.47132232905187</v>
       </c>
       <c r="L45" t="n">
-        <v>59.79718097345557</v>
+        <v>59.79718097345555</v>
       </c>
       <c r="M45" t="n">
-        <v>69.7804897452081</v>
+        <v>69.78048974520809</v>
       </c>
       <c r="N45" t="n">
-        <v>71.62737167043615</v>
+        <v>71.62737167043613</v>
       </c>
       <c r="O45" t="n">
-        <v>65.52505153554274</v>
+        <v>65.52505153554273</v>
       </c>
       <c r="P45" t="n">
-        <v>52.58963064785998</v>
+        <v>52.58963064785997</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.15477537726393</v>
+        <v>35.15477537726392</v>
       </c>
       <c r="R45" t="n">
         <v>17.09905855691823</v>
       </c>
       <c r="S45" t="n">
-        <v>5.115464325271874</v>
+        <v>5.115464325271873</v>
       </c>
       <c r="T45" t="n">
-        <v>1.110061798093236</v>
+        <v>1.110061798093235</v>
       </c>
       <c r="U45" t="n">
         <v>0.01811852771642932</v>
@@ -34518,10 +34518,10 @@
         <v>0.2308874679492522</v>
       </c>
       <c r="H46" t="n">
-        <v>2.05279948776699</v>
+        <v>2.052799487766989</v>
       </c>
       <c r="I46" t="n">
-        <v>6.943415854328425</v>
+        <v>6.943415854328423</v>
       </c>
       <c r="J46" t="n">
         <v>16.32374398401213</v>
@@ -34530,19 +34530,19 @@
         <v>26.82492582174039</v>
       </c>
       <c r="L46" t="n">
-        <v>34.32666955310975</v>
+        <v>34.32666955310974</v>
       </c>
       <c r="M46" t="n">
         <v>36.19266008953596</v>
       </c>
       <c r="N46" t="n">
-        <v>35.33207952717969</v>
+        <v>35.33207952717968</v>
       </c>
       <c r="O46" t="n">
-        <v>32.63489410613614</v>
+        <v>32.63489410613613</v>
       </c>
       <c r="P46" t="n">
-        <v>27.92478975997137</v>
+        <v>27.92478975997136</v>
       </c>
       <c r="Q46" t="n">
         <v>19.33367697527784</v>
@@ -34551,13 +34551,13 @@
         <v>10.38154014979092</v>
       </c>
       <c r="S46" t="n">
-        <v>4.023738873261059</v>
+        <v>4.023738873261058</v>
       </c>
       <c r="T46" t="n">
-        <v>0.986519181237714</v>
+        <v>0.9865191812377138</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01259386188814105</v>
+        <v>0.01259386188814104</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>34.21045329478271</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.88136420416884</v>
+        <v>38.26999595349533</v>
       </c>
       <c r="N8" t="n">
         <v>39.88136420416884</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.88136420416884</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>30.80200519947019</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30.80200519947018</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.88136420416884</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>39.88136420416884</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.02727925481463</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K11" t="n">
         <v>187.9984477613502</v>
@@ -35425,10 +35425,10 @@
         <v>258.4116363164988</v>
       </c>
       <c r="P11" t="n">
-        <v>183.236440740716</v>
+        <v>183.2364407407159</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.64394438826196</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>33.48740445666542</v>
       </c>
       <c r="K12" t="n">
-        <v>185.1197658221337</v>
+        <v>185.1197658221336</v>
       </c>
       <c r="L12" t="n">
-        <v>164.0759566941649</v>
+        <v>310.3806198036758</v>
       </c>
       <c r="M12" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N12" t="n">
-        <v>422.8548988334674</v>
+        <v>422.8548988334673</v>
       </c>
       <c r="O12" t="n">
-        <v>336.1105252500081</v>
+        <v>306.9587870291732</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.69613915520419</v>
+        <v>49.69613915520424</v>
       </c>
       <c r="K13" t="n">
-        <v>134.261756202878</v>
+        <v>134.2617562028781</v>
       </c>
       <c r="L13" t="n">
-        <v>193.99903988109</v>
+        <v>193.9990398810901</v>
       </c>
       <c r="M13" t="n">
-        <v>208.6013081854155</v>
+        <v>208.6013081854156</v>
       </c>
       <c r="N13" t="n">
         <v>211.7403392907886</v>
@@ -35586,7 +35586,7 @@
         <v>156.2580517576262</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.78421719840066</v>
+        <v>61.78421719840071</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.02727925481462</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K14" t="n">
         <v>187.9984477613502</v>
@@ -35665,7 +35665,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.64394438826179</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.48740445666542</v>
       </c>
       <c r="K15" t="n">
-        <v>185.1197658221336</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>310.3806198036758</v>
+        <v>213.1827846005517</v>
       </c>
       <c r="M15" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N15" t="n">
-        <v>422.8548988334674</v>
+        <v>422.8548988334673</v>
       </c>
       <c r="O15" t="n">
-        <v>87.28032868141602</v>
+        <v>336.1105252500081</v>
       </c>
       <c r="P15" t="n">
         <v>253.1658628044226</v>
@@ -35814,7 +35814,7 @@
         <v>208.6013081854156</v>
       </c>
       <c r="N16" t="n">
-        <v>211.7403392907887</v>
+        <v>211.7403392907886</v>
       </c>
       <c r="O16" t="n">
         <v>189.4143422350782</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.02727925481462</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K17" t="n">
         <v>187.9984477613502</v>
@@ -35902,7 +35902,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.64394438826196</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.48740445666542</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>185.1197658221336</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>310.3806198036758</v>
+        <v>246.6701890572171</v>
       </c>
       <c r="M18" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N18" t="n">
-        <v>359.4948981695419</v>
+        <v>422.8548988334673</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>336.1105252500081</v>
       </c>
       <c r="P18" t="n">
         <v>253.1658628044226</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L19" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M19" t="n">
         <v>86.39006808644453</v>
@@ -36057,7 +36057,7 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P19" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.02727925481462</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K20" t="n">
         <v>187.9984477613502</v>
@@ -36139,7 +36139,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.64394438826196</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.48740445666542</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>185.1197658221336</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>310.3806198036758</v>
+        <v>246.6701890572176</v>
       </c>
       <c r="M21" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N21" t="n">
-        <v>23.38437291953371</v>
+        <v>422.8548988334674</v>
       </c>
       <c r="O21" t="n">
         <v>336.1105252500081</v>
@@ -36218,7 +36218,7 @@
         <v>253.1658628044226</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.152924888676</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L22" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M22" t="n">
         <v>86.39006808644453</v>
@@ -36294,7 +36294,7 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P22" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.02727925481462</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K23" t="n">
         <v>187.9984477613502</v>
@@ -36376,7 +36376,7 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.64394438826196</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>310.3806198036758</v>
+        <v>246.6701890572176</v>
       </c>
       <c r="M24" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N24" t="n">
         <v>422.8548988334674</v>
@@ -36452,7 +36452,7 @@
         <v>336.1105252500081</v>
       </c>
       <c r="P24" t="n">
-        <v>189.4554320579642</v>
+        <v>253.1658628044226</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L25" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M25" t="n">
         <v>86.39006808644453</v>
@@ -36531,7 +36531,7 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P25" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>185.7393664548985</v>
+        <v>185.7393664548986</v>
       </c>
       <c r="K26" t="n">
         <v>330.7105349614341</v>
       </c>
       <c r="L26" t="n">
-        <v>428.434803914156</v>
+        <v>428.4348039141562</v>
       </c>
       <c r="M26" t="n">
-        <v>475.9996158100614</v>
+        <v>475.9996158100615</v>
       </c>
       <c r="N26" t="n">
         <v>465.7186423307485</v>
@@ -36616,7 +36616,7 @@
         <v>202.3560315883459</v>
       </c>
       <c r="R26" t="n">
-        <v>33.1942961820794</v>
+        <v>33.19429618207945</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M27" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N27" t="n">
         <v>442.0852717064818</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.1969862563171</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.05051610390704</v>
+        <v>154.762603303991</v>
       </c>
       <c r="L28" t="n">
-        <v>71.78779978211904</v>
+        <v>214.499886982203</v>
       </c>
       <c r="M28" t="n">
-        <v>229.1021552865284</v>
+        <v>229.1021552865285</v>
       </c>
       <c r="N28" t="n">
         <v>89.52909919181758</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9151893361911</v>
+        <v>67.20310213610719</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7588988587391</v>
+        <v>121.2096799297584</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.96588201478718</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>185.7393664548986</v>
       </c>
       <c r="K29" t="n">
-        <v>330.7105349614342</v>
+        <v>330.7105349614341</v>
       </c>
       <c r="L29" t="n">
         <v>428.4348039141561</v>
@@ -36844,7 +36844,7 @@
         <v>465.7186423307485</v>
       </c>
       <c r="O29" t="n">
-        <v>401.1237235165828</v>
+        <v>401.1237235165827</v>
       </c>
       <c r="P29" t="n">
         <v>325.9485279407999</v>
@@ -36917,7 +36917,7 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M30" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N30" t="n">
         <v>442.0852717064818</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>70.19698625631716</v>
       </c>
       <c r="K31" t="n">
-        <v>154.762603303991</v>
+        <v>12.05051610390704</v>
       </c>
       <c r="L31" t="n">
         <v>214.499886982203</v>
@@ -36999,16 +36999,16 @@
         <v>86.39006808644453</v>
       </c>
       <c r="N31" t="n">
-        <v>176.6919674629207</v>
+        <v>89.52909919181758</v>
       </c>
       <c r="O31" t="n">
-        <v>67.20310213610719</v>
+        <v>209.9151893361912</v>
       </c>
       <c r="P31" t="n">
         <v>176.7588988587392</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>16.96588201478603</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.0574730018011</v>
+        <v>196.0574730018012</v>
       </c>
       <c r="K32" t="n">
-        <v>341.0286415083367</v>
+        <v>286.7941904961801</v>
       </c>
       <c r="L32" t="n">
-        <v>285.7227167140721</v>
+        <v>438.7529104610586</v>
       </c>
       <c r="M32" t="n">
-        <v>388.5708686158262</v>
+        <v>486.317722356964</v>
       </c>
       <c r="N32" t="n">
-        <v>476.036748877651</v>
+        <v>476.0367488776511</v>
       </c>
       <c r="O32" t="n">
         <v>411.4418300634853</v>
       </c>
       <c r="P32" t="n">
-        <v>336.2666344877024</v>
+        <v>336.2666344877025</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.6741381352485</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R32" t="n">
-        <v>43.51240272898198</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M33" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N33" t="n">
         <v>442.0852717064818</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>80.51509280321974</v>
       </c>
       <c r="K34" t="n">
         <v>12.05051610390704</v>
       </c>
       <c r="L34" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M34" t="n">
         <v>86.39006808644453</v>
       </c>
       <c r="N34" t="n">
-        <v>242.5592929388041</v>
+        <v>89.52909919181758</v>
       </c>
       <c r="O34" t="n">
-        <v>67.20310213610719</v>
+        <v>220.2332958830937</v>
       </c>
       <c r="P34" t="n">
-        <v>158.9076868201984</v>
+        <v>78.39259401697782</v>
       </c>
       <c r="Q34" t="n">
-        <v>92.60317084641616</v>
+        <v>92.60317084641622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.222647088608912</v>
+        <v>7.222647088608852</v>
       </c>
       <c r="J35" t="n">
-        <v>235.6303370678316</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K35" t="n">
-        <v>323.7883748516592</v>
+        <v>187.9984477613502</v>
       </c>
       <c r="L35" t="n">
         <v>285.7227167140721</v>
       </c>
       <c r="M35" t="n">
-        <v>333.2875286099775</v>
+        <v>469.0774557002874</v>
       </c>
       <c r="N35" t="n">
-        <v>323.0065551306645</v>
+        <v>515.6096129436816</v>
       </c>
       <c r="O35" t="n">
         <v>258.4116363164988</v>
@@ -37324,10 +37324,10 @@
         <v>183.2364407407159</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.64394438826196</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R35" t="n">
-        <v>83.0852667950125</v>
+        <v>83.08526679501244</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M36" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N36" t="n">
-        <v>442.085271706481</v>
+        <v>442.0852717064818</v>
       </c>
       <c r="O36" t="n">
         <v>336.1105252500081</v>
@@ -37437,10 +37437,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.51936632233321</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.349115191139984</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L37" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M37" t="n">
         <v>86.39006808644453</v>
@@ -37479,13 +37479,13 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P37" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>13.86848151347361</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.222647088608912</v>
+        <v>7.222647088608909</v>
       </c>
       <c r="J38" t="n">
-        <v>235.6303370678316</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K38" t="n">
-        <v>323.7883748516597</v>
+        <v>187.9984477613502</v>
       </c>
       <c r="L38" t="n">
         <v>285.7227167140721</v>
@@ -37552,16 +37552,16 @@
         <v>333.2875286099775</v>
       </c>
       <c r="N38" t="n">
-        <v>323.0065551306645</v>
+        <v>458.7964822209741</v>
       </c>
       <c r="O38" t="n">
-        <v>258.4116363164988</v>
+        <v>451.0146941295158</v>
       </c>
       <c r="P38" t="n">
         <v>183.2364407407159</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.64394438826196</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R38" t="n">
         <v>83.0852667950125</v>
@@ -37628,7 +37628,7 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M39" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N39" t="n">
         <v>442.0852717064818</v>
@@ -37640,7 +37640,7 @@
         <v>253.1658628044226</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.1529248886756</v>
+        <v>117.152924888676</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.51936632233321</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.349115191139969</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L40" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M40" t="n">
         <v>86.39006808644453</v>
@@ -37716,13 +37716,13 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P40" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.86848151347321</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.222647088608909</v>
       </c>
       <c r="J41" t="n">
-        <v>186.0398534337336</v>
+        <v>43.02727925481461</v>
       </c>
       <c r="K41" t="n">
         <v>187.9984477613502</v>
@@ -37792,13 +37792,13 @@
         <v>323.0065551306645</v>
       </c>
       <c r="O41" t="n">
-        <v>258.4116363164988</v>
+        <v>451.0146941295158</v>
       </c>
       <c r="P41" t="n">
-        <v>183.2364407407159</v>
+        <v>319.0263678310255</v>
       </c>
       <c r="Q41" t="n">
-        <v>252.247002201279</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R41" t="n">
         <v>83.0852667950125</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.48740445666542</v>
+        <v>33.48740445666537</v>
       </c>
       <c r="K42" t="n">
         <v>185.1197658221336</v>
@@ -37865,7 +37865,7 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M42" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N42" t="n">
         <v>442.0852717064818</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>13.86848151347326</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L43" t="n">
-        <v>71.78779978211904</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M43" t="n">
         <v>86.39006808644453</v>
@@ -37953,10 +37953,10 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P43" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.86848151347321</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.222647088608856</v>
+        <v>7.222647088608909</v>
       </c>
       <c r="J44" t="n">
-        <v>43.02727925481462</v>
+        <v>178.8172063451238</v>
       </c>
       <c r="K44" t="n">
         <v>187.9984477613502</v>
@@ -38026,19 +38026,19 @@
         <v>333.2875286099775</v>
       </c>
       <c r="N44" t="n">
-        <v>458.7964822209741</v>
+        <v>323.0065551306645</v>
       </c>
       <c r="O44" t="n">
         <v>258.4116363164988</v>
       </c>
       <c r="P44" t="n">
-        <v>183.2364407407159</v>
+        <v>375.8394985537329</v>
       </c>
       <c r="Q44" t="n">
-        <v>252.2470022012789</v>
+        <v>59.64394438826194</v>
       </c>
       <c r="R44" t="n">
-        <v>83.08526679501244</v>
+        <v>83.0852667950125</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>310.3806198036758</v>
       </c>
       <c r="M45" t="n">
-        <v>415.5330729712402</v>
+        <v>415.5330729712401</v>
       </c>
       <c r="N45" t="n">
         <v>442.0852717064818</v>
@@ -38178,7 +38178,7 @@
         <v>12.05051610390704</v>
       </c>
       <c r="L46" t="n">
-        <v>85.65628129559263</v>
+        <v>71.78779978211902</v>
       </c>
       <c r="M46" t="n">
         <v>86.39006808644453</v>
@@ -38190,13 +38190,13 @@
         <v>67.20310213610719</v>
       </c>
       <c r="P46" t="n">
-        <v>34.04681165865522</v>
+        <v>34.0468116586552</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.86848151347321</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
